--- a/testdata/TransactionHistoryInquiry.xlsx
+++ b/testdata/TransactionHistoryInquiry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data 1\Test data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data - 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="278">
   <si>
     <t>S.NO</t>
   </si>
@@ -1032,6 +1032,63 @@
   </si>
   <si>
     <t xml:space="preserve">Keyword used for the fields with scenario description as Value is not available(remove the tag) </t>
+  </si>
+  <si>
+    <t>responseCode</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>rrn</t>
+  </si>
+  <si>
+    <t>authidresp</t>
+  </si>
+  <si>
+    <t>txnUid</t>
+  </si>
+  <si>
+    <t>trxnDate</t>
+  </si>
+  <si>
+    <t>stmtDesc</t>
+  </si>
+  <si>
+    <t>printCode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>trxnImpact</t>
+  </si>
+  <si>
+    <t>trxnQuantity</t>
+  </si>
+  <si>
+    <t>digitalAssetTypeCode</t>
+  </si>
+  <si>
+    <t>availableQuantity</t>
+  </si>
+  <si>
+    <t>trxnSource</t>
+  </si>
+  <si>
+    <t>trxnRefNum</t>
+  </si>
+  <si>
+    <t>trxnTime</t>
+  </si>
+  <si>
+    <t>Response Code</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>Response Pane</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,6 +1161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,7 +1385,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1404,6 +1467,47 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1433,26 +1537,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1751,58 +1835,58 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="30">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="32">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="36">
         <f>SUM(B2:B4)</f>
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="39" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="42" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1814,13 +1898,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:AG130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="K110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="L113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,10 +1921,11 @@
     <col min="10" max="10" width="38" style="4" customWidth="1"/>
     <col min="11" max="11" width="39.7109375" style="25" customWidth="1"/>
     <col min="12" max="12" width="41" style="25" customWidth="1"/>
-    <col min="13" max="16384" width="51.140625" style="4"/>
+    <col min="13" max="13" width="12.140625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="51.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,12 +1962,75 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="M1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="X1" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z1" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA1" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB1" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC1" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD1" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE1" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF1" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG1" s="43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1915,11 +2063,34 @@
       <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="35" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="56" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1949,11 +2120,34 @@
       <c r="L3" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
@@ -1981,11 +2175,34 @@
       <c r="L4" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
@@ -2013,11 +2230,34 @@
       <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
@@ -2045,11 +2285,34 @@
       <c r="L6" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
@@ -2077,11 +2340,34 @@
       <c r="L7" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="11" t="s">
         <v>37</v>
       </c>
@@ -2109,11 +2395,34 @@
       <c r="L8" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="35"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
@@ -2141,11 +2450,34 @@
       <c r="L9" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="35"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="11" t="s">
         <v>40</v>
       </c>
@@ -2173,11 +2505,34 @@
       <c r="L10" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="35"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
@@ -2205,11 +2560,34 @@
       <c r="L11" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="35"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
@@ -2237,11 +2615,34 @@
       <c r="L12" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="11" t="s">
         <v>40</v>
       </c>
@@ -2269,11 +2670,34 @@
       <c r="L13" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="35"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="11" t="s">
         <v>40</v>
       </c>
@@ -2301,11 +2725,34 @@
       <c r="L14" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="11" t="s">
         <v>54</v>
       </c>
@@ -2333,11 +2780,34 @@
       <c r="L15" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
@@ -2365,11 +2835,34 @@
       <c r="L16" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
@@ -2397,11 +2890,34 @@
       <c r="L17" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="11" t="s">
         <v>62</v>
       </c>
@@ -2429,11 +2945,34 @@
       <c r="L18" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="11" t="s">
         <v>65</v>
       </c>
@@ -2461,11 +3000,34 @@
       <c r="L19" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="11" t="s">
         <v>68</v>
       </c>
@@ -2493,11 +3055,34 @@
       <c r="L20" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="11" t="s">
         <v>71</v>
       </c>
@@ -2523,11 +3108,34 @@
       <c r="L21" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="11" t="s">
         <v>74</v>
       </c>
@@ -2553,11 +3161,34 @@
       <c r="L22" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="36" t="s">
+      <c r="M22" s="48"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="57" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -2587,11 +3218,34 @@
       <c r="L23" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="37"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
@@ -2617,11 +3271,34 @@
       <c r="L24" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="38"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="13" t="s">
         <v>82</v>
       </c>
@@ -2649,12 +3326,35 @@
       <c r="L25" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="M25" s="48"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="50">
         <v>2</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2687,11 +3387,34 @@
       <c r="L26" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="s">
+      <c r="M26" s="48"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="56" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -2721,11 +3444,34 @@
       <c r="L27" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="11" t="s">
         <v>26</v>
       </c>
@@ -2753,11 +3499,34 @@
       <c r="L28" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="11" t="s">
         <v>29</v>
       </c>
@@ -2785,11 +3554,34 @@
       <c r="L29" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="11" t="s">
         <v>31</v>
       </c>
@@ -2817,11 +3609,34 @@
       <c r="L30" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="35"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
@@ -2849,11 +3664,34 @@
       <c r="L31" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="35"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="11" t="s">
         <v>37</v>
       </c>
@@ -2881,11 +3719,34 @@
       <c r="L32" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="35"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="11" t="s">
         <v>40</v>
       </c>
@@ -2913,11 +3774,34 @@
       <c r="L33" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="35"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="11" t="s">
         <v>40</v>
       </c>
@@ -2945,11 +3829,34 @@
       <c r="L34" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="35"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="11" t="s">
         <v>40</v>
       </c>
@@ -2977,11 +3884,34 @@
       <c r="L35" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="35"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="11" t="s">
         <v>54</v>
       </c>
@@ -3009,11 +3939,34 @@
       <c r="L36" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="35"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="11" t="s">
         <v>57</v>
       </c>
@@ -3041,11 +3994,34 @@
       <c r="L37" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="35"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
@@ -3073,11 +4049,34 @@
       <c r="L38" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="35"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="11" t="s">
         <v>62</v>
       </c>
@@ -3105,11 +4104,34 @@
       <c r="L39" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="35"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="11" t="s">
         <v>65</v>
       </c>
@@ -3137,11 +4159,34 @@
       <c r="L40" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="35"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="11" t="s">
         <v>68</v>
       </c>
@@ -3169,11 +4214,34 @@
       <c r="L41" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="35"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="11" t="s">
         <v>71</v>
       </c>
@@ -3199,11 +4267,34 @@
       <c r="L42" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="35"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="11" t="s">
         <v>74</v>
       </c>
@@ -3229,11 +4320,34 @@
       <c r="L43" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="36" t="s">
+      <c r="M43" s="48"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="57" t="s">
         <v>120</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -3263,11 +4377,34 @@
       <c r="L44" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="37"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="11" t="s">
         <v>80</v>
       </c>
@@ -3291,11 +4428,34 @@
       <c r="L45" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="38"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="13" t="s">
         <v>82</v>
       </c>
@@ -3321,12 +4481,35 @@
       <c r="L46" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="M46" s="48"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="45"/>
+      <c r="AG46" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="50">
         <v>3</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3359,11 +4542,34 @@
       <c r="L47" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="35" t="s">
+      <c r="M47" s="48"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="56" t="s">
         <v>127</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -3393,11 +4599,34 @@
       <c r="L48" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="35"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="11" t="s">
         <v>26</v>
       </c>
@@ -3425,11 +4654,34 @@
       <c r="L49" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="35"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="45"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="11" t="s">
         <v>29</v>
       </c>
@@ -3457,11 +4709,34 @@
       <c r="L50" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="35"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="11" t="s">
         <v>31</v>
       </c>
@@ -3489,11 +4764,34 @@
       <c r="L51" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="35"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="45"/>
+      <c r="AF51" s="45"/>
+      <c r="AG51" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="11" t="s">
         <v>34</v>
       </c>
@@ -3521,11 +4819,34 @@
       <c r="L52" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="35"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="45"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="11" t="s">
         <v>37</v>
       </c>
@@ -3553,11 +4874,34 @@
       <c r="L53" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="35"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="45"/>
+      <c r="AE53" s="45"/>
+      <c r="AF53" s="45"/>
+      <c r="AG53" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="11" t="s">
         <v>40</v>
       </c>
@@ -3585,11 +4929,34 @@
       <c r="L54" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="35"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="11" t="s">
         <v>40</v>
       </c>
@@ -3617,11 +4984,34 @@
       <c r="L55" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="35"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
+      <c r="AA55" s="45"/>
+      <c r="AB55" s="45"/>
+      <c r="AC55" s="45"/>
+      <c r="AD55" s="45"/>
+      <c r="AE55" s="45"/>
+      <c r="AF55" s="45"/>
+      <c r="AG55" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="11" t="s">
         <v>40</v>
       </c>
@@ -3649,11 +5039,34 @@
       <c r="L56" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="35"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="45"/>
+      <c r="Y56" s="45"/>
+      <c r="Z56" s="45"/>
+      <c r="AA56" s="45"/>
+      <c r="AB56" s="45"/>
+      <c r="AC56" s="45"/>
+      <c r="AD56" s="45"/>
+      <c r="AE56" s="45"/>
+      <c r="AF56" s="45"/>
+      <c r="AG56" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="11" t="s">
         <v>54</v>
       </c>
@@ -3681,11 +5094,34 @@
       <c r="L57" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="35"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45"/>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="45"/>
+      <c r="AC57" s="45"/>
+      <c r="AD57" s="45"/>
+      <c r="AE57" s="45"/>
+      <c r="AF57" s="45"/>
+      <c r="AG57" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="11" t="s">
         <v>57</v>
       </c>
@@ -3713,11 +5149,34 @@
       <c r="L58" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="35"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="45"/>
+      <c r="AA58" s="45"/>
+      <c r="AB58" s="45"/>
+      <c r="AC58" s="45"/>
+      <c r="AD58" s="45"/>
+      <c r="AE58" s="45"/>
+      <c r="AF58" s="45"/>
+      <c r="AG58" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="11" t="s">
         <v>60</v>
       </c>
@@ -3745,11 +5204,34 @@
       <c r="L59" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="35"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="45"/>
+      <c r="AD59" s="45"/>
+      <c r="AE59" s="45"/>
+      <c r="AF59" s="45"/>
+      <c r="AG59" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="11" t="s">
         <v>62</v>
       </c>
@@ -3777,11 +5259,34 @@
       <c r="L60" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="35"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="45"/>
+      <c r="AA60" s="45"/>
+      <c r="AB60" s="45"/>
+      <c r="AC60" s="45"/>
+      <c r="AD60" s="45"/>
+      <c r="AE60" s="45"/>
+      <c r="AF60" s="45"/>
+      <c r="AG60" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="51"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="11" t="s">
         <v>65</v>
       </c>
@@ -3809,11 +5314,34 @@
       <c r="L61" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="35"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="45"/>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="45"/>
+      <c r="AD61" s="45"/>
+      <c r="AE61" s="45"/>
+      <c r="AF61" s="45"/>
+      <c r="AG61" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="11" t="s">
         <v>68</v>
       </c>
@@ -3841,11 +5369,34 @@
       <c r="L62" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="35"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+      <c r="W62" s="45"/>
+      <c r="X62" s="45"/>
+      <c r="Y62" s="45"/>
+      <c r="Z62" s="45"/>
+      <c r="AA62" s="45"/>
+      <c r="AB62" s="45"/>
+      <c r="AC62" s="45"/>
+      <c r="AD62" s="45"/>
+      <c r="AE62" s="45"/>
+      <c r="AF62" s="45"/>
+      <c r="AG62" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="11" t="s">
         <v>71</v>
       </c>
@@ -3871,11 +5422,34 @@
       <c r="L63" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="35"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="45"/>
+      <c r="AB63" s="45"/>
+      <c r="AC63" s="45"/>
+      <c r="AD63" s="45"/>
+      <c r="AE63" s="45"/>
+      <c r="AF63" s="45"/>
+      <c r="AG63" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="51"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="11" t="s">
         <v>74</v>
       </c>
@@ -3901,11 +5475,34 @@
       <c r="L64" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="36" t="s">
+      <c r="M64" s="48"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+      <c r="W64" s="45"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
+      <c r="AA64" s="45"/>
+      <c r="AB64" s="45"/>
+      <c r="AC64" s="45"/>
+      <c r="AD64" s="45"/>
+      <c r="AE64" s="45"/>
+      <c r="AF64" s="45"/>
+      <c r="AG64" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="57" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -3935,11 +5532,34 @@
       <c r="L65" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="37"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="45"/>
+      <c r="AD65" s="45"/>
+      <c r="AE65" s="45"/>
+      <c r="AF65" s="45"/>
+      <c r="AG65" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="51"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="58"/>
       <c r="D66" s="11" t="s">
         <v>80</v>
       </c>
@@ -3963,11 +5583,34 @@
       <c r="L66" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="38"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="45"/>
+      <c r="AB66" s="45"/>
+      <c r="AC66" s="45"/>
+      <c r="AD66" s="45"/>
+      <c r="AE66" s="45"/>
+      <c r="AF66" s="45"/>
+      <c r="AG66" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="52"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="13" t="s">
         <v>82</v>
       </c>
@@ -3993,12 +5636,35 @@
       <c r="L67" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="29">
+      <c r="M67" s="48"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="45"/>
+      <c r="AC67" s="45"/>
+      <c r="AD67" s="45"/>
+      <c r="AE67" s="45"/>
+      <c r="AF67" s="45"/>
+      <c r="AG67" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="50">
         <v>4</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="53" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -4031,11 +5697,34 @@
       <c r="L68" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="35" t="s">
+      <c r="M68" s="48"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="45"/>
+      <c r="AB68" s="45"/>
+      <c r="AC68" s="45"/>
+      <c r="AD68" s="45"/>
+      <c r="AE68" s="45"/>
+      <c r="AF68" s="45"/>
+      <c r="AG68" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="51"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="56" t="s">
         <v>162</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -4065,11 +5754,34 @@
       <c r="L69" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="35"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="45"/>
+      <c r="W69" s="45"/>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="45"/>
+      <c r="AB69" s="45"/>
+      <c r="AC69" s="45"/>
+      <c r="AD69" s="45"/>
+      <c r="AE69" s="45"/>
+      <c r="AF69" s="45"/>
+      <c r="AG69" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="51"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="11" t="s">
         <v>26</v>
       </c>
@@ -4097,11 +5809,34 @@
       <c r="L70" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="35"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="45"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="45"/>
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="45"/>
+      <c r="AD70" s="45"/>
+      <c r="AE70" s="45"/>
+      <c r="AF70" s="45"/>
+      <c r="AG70" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" s="51"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="11" t="s">
         <v>29</v>
       </c>
@@ -4129,11 +5864,34 @@
       <c r="L71" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="35"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="45"/>
+      <c r="AC71" s="45"/>
+      <c r="AD71" s="45"/>
+      <c r="AE71" s="45"/>
+      <c r="AF71" s="45"/>
+      <c r="AG71" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" s="51"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="11" t="s">
         <v>31</v>
       </c>
@@ -4161,11 +5919,34 @@
       <c r="L72" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="35"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="45"/>
+      <c r="AB72" s="45"/>
+      <c r="AC72" s="45"/>
+      <c r="AD72" s="45"/>
+      <c r="AE72" s="45"/>
+      <c r="AF72" s="45"/>
+      <c r="AG72" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="51"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="11" t="s">
         <v>34</v>
       </c>
@@ -4193,11 +5974,34 @@
       <c r="L73" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="35"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="45"/>
+      <c r="AC73" s="45"/>
+      <c r="AD73" s="45"/>
+      <c r="AE73" s="45"/>
+      <c r="AF73" s="45"/>
+      <c r="AG73" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="51"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="11" t="s">
         <v>37</v>
       </c>
@@ -4225,11 +6029,34 @@
       <c r="L74" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="35"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="45"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="45"/>
+      <c r="Z74" s="45"/>
+      <c r="AA74" s="45"/>
+      <c r="AB74" s="45"/>
+      <c r="AC74" s="45"/>
+      <c r="AD74" s="45"/>
+      <c r="AE74" s="45"/>
+      <c r="AF74" s="45"/>
+      <c r="AG74" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="51"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="11" t="s">
         <v>40</v>
       </c>
@@ -4257,11 +6084,34 @@
       <c r="L75" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="35"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+      <c r="W75" s="45"/>
+      <c r="X75" s="45"/>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="45"/>
+      <c r="AC75" s="45"/>
+      <c r="AD75" s="45"/>
+      <c r="AE75" s="45"/>
+      <c r="AF75" s="45"/>
+      <c r="AG75" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="51"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="11" t="s">
         <v>40</v>
       </c>
@@ -4289,11 +6139,34 @@
       <c r="L76" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="35"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="45"/>
+      <c r="W76" s="45"/>
+      <c r="X76" s="45"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+      <c r="AA76" s="45"/>
+      <c r="AB76" s="45"/>
+      <c r="AC76" s="45"/>
+      <c r="AD76" s="45"/>
+      <c r="AE76" s="45"/>
+      <c r="AF76" s="45"/>
+      <c r="AG76" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="11" t="s">
         <v>40</v>
       </c>
@@ -4321,11 +6194,34 @@
       <c r="L77" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="35"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="45"/>
+      <c r="V77" s="45"/>
+      <c r="W77" s="45"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45"/>
+      <c r="AA77" s="45"/>
+      <c r="AB77" s="45"/>
+      <c r="AC77" s="45"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="45"/>
+      <c r="AF77" s="45"/>
+      <c r="AG77" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="11" t="s">
         <v>54</v>
       </c>
@@ -4353,11 +6249,34 @@
       <c r="L78" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="35"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="45"/>
+      <c r="W78" s="45"/>
+      <c r="X78" s="45"/>
+      <c r="Y78" s="45"/>
+      <c r="Z78" s="45"/>
+      <c r="AA78" s="45"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="45"/>
+      <c r="AE78" s="45"/>
+      <c r="AF78" s="45"/>
+      <c r="AG78" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="11" t="s">
         <v>57</v>
       </c>
@@ -4385,11 +6304,34 @@
       <c r="L79" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="35"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="45"/>
+      <c r="W79" s="45"/>
+      <c r="X79" s="45"/>
+      <c r="Y79" s="45"/>
+      <c r="Z79" s="45"/>
+      <c r="AA79" s="45"/>
+      <c r="AB79" s="45"/>
+      <c r="AC79" s="45"/>
+      <c r="AD79" s="45"/>
+      <c r="AE79" s="45"/>
+      <c r="AF79" s="45"/>
+      <c r="AG79" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" s="51"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="11" t="s">
         <v>60</v>
       </c>
@@ -4417,11 +6359,34 @@
       <c r="L80" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="35"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45"/>
+      <c r="AA80" s="45"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="45"/>
+      <c r="AD80" s="45"/>
+      <c r="AE80" s="45"/>
+      <c r="AF80" s="45"/>
+      <c r="AG80" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="11" t="s">
         <v>62</v>
       </c>
@@ -4449,11 +6414,34 @@
       <c r="L81" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="35"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="45"/>
+      <c r="Q81" s="45"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="45"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="45"/>
+      <c r="V81" s="45"/>
+      <c r="W81" s="45"/>
+      <c r="X81" s="45"/>
+      <c r="Y81" s="45"/>
+      <c r="Z81" s="45"/>
+      <c r="AA81" s="45"/>
+      <c r="AB81" s="45"/>
+      <c r="AC81" s="45"/>
+      <c r="AD81" s="45"/>
+      <c r="AE81" s="45"/>
+      <c r="AF81" s="45"/>
+      <c r="AG81" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="56"/>
       <c r="D82" s="11" t="s">
         <v>65</v>
       </c>
@@ -4481,11 +6469,34 @@
       <c r="L82" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="35"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="45"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45"/>
+      <c r="V82" s="45"/>
+      <c r="W82" s="45"/>
+      <c r="X82" s="45"/>
+      <c r="Y82" s="45"/>
+      <c r="Z82" s="45"/>
+      <c r="AA82" s="45"/>
+      <c r="AB82" s="45"/>
+      <c r="AC82" s="45"/>
+      <c r="AD82" s="45"/>
+      <c r="AE82" s="45"/>
+      <c r="AF82" s="45"/>
+      <c r="AG82" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="56"/>
       <c r="D83" s="11" t="s">
         <v>68</v>
       </c>
@@ -4513,11 +6524,34 @@
       <c r="L83" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="35"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="45"/>
+      <c r="Q83" s="45"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="45"/>
+      <c r="V83" s="45"/>
+      <c r="W83" s="45"/>
+      <c r="X83" s="45"/>
+      <c r="Y83" s="45"/>
+      <c r="Z83" s="45"/>
+      <c r="AA83" s="45"/>
+      <c r="AB83" s="45"/>
+      <c r="AC83" s="45"/>
+      <c r="AD83" s="45"/>
+      <c r="AE83" s="45"/>
+      <c r="AF83" s="45"/>
+      <c r="AG83" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="56"/>
       <c r="D84" s="11" t="s">
         <v>71</v>
       </c>
@@ -4543,11 +6577,34 @@
       <c r="L84" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="35"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="45"/>
+      <c r="P84" s="45"/>
+      <c r="Q84" s="45"/>
+      <c r="R84" s="45"/>
+      <c r="S84" s="45"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="45"/>
+      <c r="V84" s="45"/>
+      <c r="W84" s="45"/>
+      <c r="X84" s="45"/>
+      <c r="Y84" s="45"/>
+      <c r="Z84" s="45"/>
+      <c r="AA84" s="45"/>
+      <c r="AB84" s="45"/>
+      <c r="AC84" s="45"/>
+      <c r="AD84" s="45"/>
+      <c r="AE84" s="45"/>
+      <c r="AF84" s="45"/>
+      <c r="AG84" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" s="51"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="11" t="s">
         <v>74</v>
       </c>
@@ -4573,11 +6630,34 @@
       <c r="L85" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="36" t="s">
+      <c r="M85" s="48"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="45"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="45"/>
+      <c r="V85" s="45"/>
+      <c r="W85" s="45"/>
+      <c r="X85" s="45"/>
+      <c r="Y85" s="45"/>
+      <c r="Z85" s="45"/>
+      <c r="AA85" s="45"/>
+      <c r="AB85" s="45"/>
+      <c r="AC85" s="45"/>
+      <c r="AD85" s="45"/>
+      <c r="AE85" s="45"/>
+      <c r="AF85" s="45"/>
+      <c r="AG85" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="57" t="s">
         <v>77</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -4607,11 +6687,34 @@
       <c r="L86" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="37"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="45"/>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" s="45"/>
+      <c r="AA86" s="45"/>
+      <c r="AB86" s="45"/>
+      <c r="AC86" s="45"/>
+      <c r="AD86" s="45"/>
+      <c r="AE86" s="45"/>
+      <c r="AF86" s="45"/>
+      <c r="AG86" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="58"/>
       <c r="D87" s="11" t="s">
         <v>80</v>
       </c>
@@ -4637,11 +6740,34 @@
       <c r="L87" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="38"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="45"/>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="45"/>
+      <c r="AB87" s="45"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="45"/>
+      <c r="AE87" s="45"/>
+      <c r="AF87" s="45"/>
+      <c r="AG87" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" s="52"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="59"/>
       <c r="D88" s="13" t="s">
         <v>82</v>
       </c>
@@ -4669,12 +6795,35 @@
       <c r="L88" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="29">
+      <c r="M88" s="48"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="45"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+      <c r="W88" s="45"/>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="45"/>
+      <c r="AB88" s="45"/>
+      <c r="AC88" s="45"/>
+      <c r="AD88" s="45"/>
+      <c r="AE88" s="45"/>
+      <c r="AF88" s="45"/>
+      <c r="AG88" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="50">
         <v>5</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="53" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -4707,11 +6856,34 @@
       <c r="L89" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="35" t="s">
+      <c r="M89" s="48"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="45"/>
+      <c r="W89" s="45"/>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="45"/>
+      <c r="AB89" s="45"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="45"/>
+      <c r="AE89" s="45"/>
+      <c r="AF89" s="45"/>
+      <c r="AG89" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90" s="51"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="56" t="s">
         <v>193</v>
       </c>
       <c r="D90" s="11" t="s">
@@ -4741,11 +6913,34 @@
       <c r="L90" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="35"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="45"/>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="45"/>
+      <c r="V90" s="45"/>
+      <c r="W90" s="45"/>
+      <c r="X90" s="45"/>
+      <c r="Y90" s="45"/>
+      <c r="Z90" s="45"/>
+      <c r="AA90" s="45"/>
+      <c r="AB90" s="45"/>
+      <c r="AC90" s="45"/>
+      <c r="AD90" s="45"/>
+      <c r="AE90" s="45"/>
+      <c r="AF90" s="45"/>
+      <c r="AG90" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="56"/>
       <c r="D91" s="11" t="s">
         <v>26</v>
       </c>
@@ -4773,11 +6968,34 @@
       <c r="L91" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="35"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="45"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="45"/>
+      <c r="W91" s="45"/>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="45"/>
+      <c r="Z91" s="45"/>
+      <c r="AA91" s="45"/>
+      <c r="AB91" s="45"/>
+      <c r="AC91" s="45"/>
+      <c r="AD91" s="45"/>
+      <c r="AE91" s="45"/>
+      <c r="AF91" s="45"/>
+      <c r="AG91" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="56"/>
       <c r="D92" s="11" t="s">
         <v>29</v>
       </c>
@@ -4805,11 +7023,34 @@
       <c r="L92" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="35"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45"/>
+      <c r="AA92" s="45"/>
+      <c r="AB92" s="45"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="45"/>
+      <c r="AE92" s="45"/>
+      <c r="AF92" s="45"/>
+      <c r="AG92" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="11" t="s">
         <v>31</v>
       </c>
@@ -4837,11 +7078,34 @@
       <c r="L93" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="35"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="45"/>
+      <c r="W93" s="45"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="45"/>
+      <c r="Z93" s="45"/>
+      <c r="AA93" s="45"/>
+      <c r="AB93" s="45"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="45"/>
+      <c r="AE93" s="45"/>
+      <c r="AF93" s="45"/>
+      <c r="AG93" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="11" t="s">
         <v>34</v>
       </c>
@@ -4869,11 +7133,34 @@
       <c r="L94" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="35"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="45"/>
+      <c r="P94" s="45"/>
+      <c r="Q94" s="45"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="45"/>
+      <c r="W94" s="45"/>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="45"/>
+      <c r="Z94" s="45"/>
+      <c r="AA94" s="45"/>
+      <c r="AB94" s="45"/>
+      <c r="AC94" s="45"/>
+      <c r="AD94" s="45"/>
+      <c r="AE94" s="45"/>
+      <c r="AF94" s="45"/>
+      <c r="AG94" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="11" t="s">
         <v>37</v>
       </c>
@@ -4901,11 +7188,34 @@
       <c r="L95" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="35"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="45"/>
+      <c r="Q95" s="45"/>
+      <c r="R95" s="45"/>
+      <c r="S95" s="45"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="45"/>
+      <c r="V95" s="45"/>
+      <c r="W95" s="45"/>
+      <c r="X95" s="45"/>
+      <c r="Y95" s="45"/>
+      <c r="Z95" s="45"/>
+      <c r="AA95" s="45"/>
+      <c r="AB95" s="45"/>
+      <c r="AC95" s="45"/>
+      <c r="AD95" s="45"/>
+      <c r="AE95" s="45"/>
+      <c r="AF95" s="45"/>
+      <c r="AG95" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" s="51"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="11" t="s">
         <v>40</v>
       </c>
@@ -4933,11 +7243,34 @@
       <c r="L96" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="35"/>
+      <c r="M96" s="48"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="45"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="45"/>
+      <c r="V96" s="45"/>
+      <c r="W96" s="45"/>
+      <c r="X96" s="45"/>
+      <c r="Y96" s="45"/>
+      <c r="Z96" s="45"/>
+      <c r="AA96" s="45"/>
+      <c r="AB96" s="45"/>
+      <c r="AC96" s="45"/>
+      <c r="AD96" s="45"/>
+      <c r="AE96" s="45"/>
+      <c r="AF96" s="45"/>
+      <c r="AG96" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="11" t="s">
         <v>40</v>
       </c>
@@ -4965,11 +7298,34 @@
       <c r="L97" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="35"/>
+      <c r="M97" s="48"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="45"/>
+      <c r="Q97" s="45"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="45"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="45"/>
+      <c r="W97" s="45"/>
+      <c r="X97" s="45"/>
+      <c r="Y97" s="45"/>
+      <c r="Z97" s="45"/>
+      <c r="AA97" s="45"/>
+      <c r="AB97" s="45"/>
+      <c r="AC97" s="45"/>
+      <c r="AD97" s="45"/>
+      <c r="AE97" s="45"/>
+      <c r="AF97" s="45"/>
+      <c r="AG97" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="56"/>
       <c r="D98" s="11" t="s">
         <v>40</v>
       </c>
@@ -4997,11 +7353,34 @@
       <c r="L98" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="35"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="45"/>
+      <c r="P98" s="45"/>
+      <c r="Q98" s="45"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="45"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="45"/>
+      <c r="V98" s="45"/>
+      <c r="W98" s="45"/>
+      <c r="X98" s="45"/>
+      <c r="Y98" s="45"/>
+      <c r="Z98" s="45"/>
+      <c r="AA98" s="45"/>
+      <c r="AB98" s="45"/>
+      <c r="AC98" s="45"/>
+      <c r="AD98" s="45"/>
+      <c r="AE98" s="45"/>
+      <c r="AF98" s="45"/>
+      <c r="AG98" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="11" t="s">
         <v>54</v>
       </c>
@@ -5029,11 +7408,34 @@
       <c r="L99" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="35"/>
+      <c r="M99" s="48"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="45"/>
+      <c r="P99" s="45"/>
+      <c r="Q99" s="45"/>
+      <c r="R99" s="45"/>
+      <c r="S99" s="45"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="45"/>
+      <c r="V99" s="45"/>
+      <c r="W99" s="45"/>
+      <c r="X99" s="45"/>
+      <c r="Y99" s="45"/>
+      <c r="Z99" s="45"/>
+      <c r="AA99" s="45"/>
+      <c r="AB99" s="45"/>
+      <c r="AC99" s="45"/>
+      <c r="AD99" s="45"/>
+      <c r="AE99" s="45"/>
+      <c r="AF99" s="45"/>
+      <c r="AG99" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="11" t="s">
         <v>57</v>
       </c>
@@ -5061,11 +7463,34 @@
       <c r="L100" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="35"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="45"/>
+      <c r="O100" s="45"/>
+      <c r="P100" s="45"/>
+      <c r="Q100" s="45"/>
+      <c r="R100" s="45"/>
+      <c r="S100" s="45"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="45"/>
+      <c r="V100" s="45"/>
+      <c r="W100" s="45"/>
+      <c r="X100" s="45"/>
+      <c r="Y100" s="45"/>
+      <c r="Z100" s="45"/>
+      <c r="AA100" s="45"/>
+      <c r="AB100" s="45"/>
+      <c r="AC100" s="45"/>
+      <c r="AD100" s="45"/>
+      <c r="AE100" s="45"/>
+      <c r="AF100" s="45"/>
+      <c r="AG100" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" s="51"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="56"/>
       <c r="D101" s="11" t="s">
         <v>60</v>
       </c>
@@ -5093,11 +7518,34 @@
       <c r="L101" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="35"/>
+      <c r="M101" s="48"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="45"/>
+      <c r="V101" s="45"/>
+      <c r="W101" s="45"/>
+      <c r="X101" s="45"/>
+      <c r="Y101" s="45"/>
+      <c r="Z101" s="45"/>
+      <c r="AA101" s="45"/>
+      <c r="AB101" s="45"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="45"/>
+      <c r="AE101" s="45"/>
+      <c r="AF101" s="45"/>
+      <c r="AG101" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="51"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="56"/>
       <c r="D102" s="11" t="s">
         <v>62</v>
       </c>
@@ -5125,11 +7573,34 @@
       <c r="L102" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="35"/>
+      <c r="M102" s="48"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
+      <c r="Q102" s="45"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="45"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="45"/>
+      <c r="V102" s="45"/>
+      <c r="W102" s="45"/>
+      <c r="X102" s="45"/>
+      <c r="Y102" s="45"/>
+      <c r="Z102" s="45"/>
+      <c r="AA102" s="45"/>
+      <c r="AB102" s="45"/>
+      <c r="AC102" s="45"/>
+      <c r="AD102" s="45"/>
+      <c r="AE102" s="45"/>
+      <c r="AF102" s="45"/>
+      <c r="AG102" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="51"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="56"/>
       <c r="D103" s="11" t="s">
         <v>65</v>
       </c>
@@ -5157,11 +7628,34 @@
       <c r="L103" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="35"/>
+      <c r="M103" s="48"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="45"/>
+      <c r="P103" s="45"/>
+      <c r="Q103" s="45"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="45"/>
+      <c r="V103" s="45"/>
+      <c r="W103" s="45"/>
+      <c r="X103" s="45"/>
+      <c r="Y103" s="45"/>
+      <c r="Z103" s="45"/>
+      <c r="AA103" s="45"/>
+      <c r="AB103" s="45"/>
+      <c r="AC103" s="45"/>
+      <c r="AD103" s="45"/>
+      <c r="AE103" s="45"/>
+      <c r="AF103" s="45"/>
+      <c r="AG103" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="51"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="56"/>
       <c r="D104" s="11" t="s">
         <v>68</v>
       </c>
@@ -5189,11 +7683,34 @@
       <c r="L104" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="35"/>
+      <c r="M104" s="48"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
+      <c r="Q104" s="45"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="45"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="45"/>
+      <c r="V104" s="45"/>
+      <c r="W104" s="45"/>
+      <c r="X104" s="45"/>
+      <c r="Y104" s="45"/>
+      <c r="Z104" s="45"/>
+      <c r="AA104" s="45"/>
+      <c r="AB104" s="45"/>
+      <c r="AC104" s="45"/>
+      <c r="AD104" s="45"/>
+      <c r="AE104" s="45"/>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="51"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="56"/>
       <c r="D105" s="11" t="s">
         <v>71</v>
       </c>
@@ -5219,11 +7736,34 @@
       <c r="L105" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="35"/>
+      <c r="M105" s="48"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="45"/>
+      <c r="Q105" s="45"/>
+      <c r="R105" s="45"/>
+      <c r="S105" s="45"/>
+      <c r="T105" s="45"/>
+      <c r="U105" s="45"/>
+      <c r="V105" s="45"/>
+      <c r="W105" s="45"/>
+      <c r="X105" s="45"/>
+      <c r="Y105" s="45"/>
+      <c r="Z105" s="45"/>
+      <c r="AA105" s="45"/>
+      <c r="AB105" s="45"/>
+      <c r="AC105" s="45"/>
+      <c r="AD105" s="45"/>
+      <c r="AE105" s="45"/>
+      <c r="AF105" s="45"/>
+      <c r="AG105" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" s="51"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="11" t="s">
         <v>74</v>
       </c>
@@ -5249,11 +7789,34 @@
       <c r="L106" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="36" t="s">
+      <c r="M106" s="48"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="45"/>
+      <c r="P106" s="45"/>
+      <c r="Q106" s="45"/>
+      <c r="R106" s="45"/>
+      <c r="S106" s="45"/>
+      <c r="T106" s="45"/>
+      <c r="U106" s="45"/>
+      <c r="V106" s="45"/>
+      <c r="W106" s="45"/>
+      <c r="X106" s="45"/>
+      <c r="Y106" s="45"/>
+      <c r="Z106" s="45"/>
+      <c r="AA106" s="45"/>
+      <c r="AB106" s="45"/>
+      <c r="AC106" s="45"/>
+      <c r="AD106" s="45"/>
+      <c r="AE106" s="45"/>
+      <c r="AF106" s="45"/>
+      <c r="AG106" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" s="51"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="57" t="s">
         <v>120</v>
       </c>
       <c r="D107" s="11" t="s">
@@ -5283,11 +7846,34 @@
       <c r="L107" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="37"/>
+      <c r="M107" s="48"/>
+      <c r="N107" s="45"/>
+      <c r="O107" s="45"/>
+      <c r="P107" s="45"/>
+      <c r="Q107" s="45"/>
+      <c r="R107" s="45"/>
+      <c r="S107" s="45"/>
+      <c r="T107" s="45"/>
+      <c r="U107" s="45"/>
+      <c r="V107" s="45"/>
+      <c r="W107" s="45"/>
+      <c r="X107" s="45"/>
+      <c r="Y107" s="45"/>
+      <c r="Z107" s="45"/>
+      <c r="AA107" s="45"/>
+      <c r="AB107" s="45"/>
+      <c r="AC107" s="45"/>
+      <c r="AD107" s="45"/>
+      <c r="AE107" s="45"/>
+      <c r="AF107" s="45"/>
+      <c r="AG107" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A108" s="51"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="58"/>
       <c r="D108" s="11" t="s">
         <v>80</v>
       </c>
@@ -5311,11 +7897,34 @@
       <c r="L108" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="38"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="45"/>
+      <c r="O108" s="45"/>
+      <c r="P108" s="45"/>
+      <c r="Q108" s="45"/>
+      <c r="R108" s="45"/>
+      <c r="S108" s="45"/>
+      <c r="T108" s="45"/>
+      <c r="U108" s="45"/>
+      <c r="V108" s="45"/>
+      <c r="W108" s="45"/>
+      <c r="X108" s="45"/>
+      <c r="Y108" s="45"/>
+      <c r="Z108" s="45"/>
+      <c r="AA108" s="45"/>
+      <c r="AB108" s="45"/>
+      <c r="AC108" s="45"/>
+      <c r="AD108" s="45"/>
+      <c r="AE108" s="45"/>
+      <c r="AF108" s="45"/>
+      <c r="AG108" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A109" s="52"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="59"/>
       <c r="D109" s="13" t="s">
         <v>82</v>
       </c>
@@ -5341,12 +7950,35 @@
       <c r="L109" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="29">
+      <c r="M109" s="48"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
+      <c r="Q109" s="45"/>
+      <c r="R109" s="45"/>
+      <c r="S109" s="45"/>
+      <c r="T109" s="45"/>
+      <c r="U109" s="45"/>
+      <c r="V109" s="45"/>
+      <c r="W109" s="45"/>
+      <c r="X109" s="45"/>
+      <c r="Y109" s="45"/>
+      <c r="Z109" s="45"/>
+      <c r="AA109" s="45"/>
+      <c r="AB109" s="45"/>
+      <c r="AC109" s="45"/>
+      <c r="AD109" s="45"/>
+      <c r="AE109" s="45"/>
+      <c r="AF109" s="45"/>
+      <c r="AG109" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="50">
         <v>6</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="17" t="s">
@@ -5379,11 +8011,34 @@
       <c r="L110" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="35" t="s">
+      <c r="M110" s="48"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
+      <c r="Q110" s="45"/>
+      <c r="R110" s="45"/>
+      <c r="S110" s="45"/>
+      <c r="T110" s="45"/>
+      <c r="U110" s="45"/>
+      <c r="V110" s="45"/>
+      <c r="W110" s="45"/>
+      <c r="X110" s="45"/>
+      <c r="Y110" s="45"/>
+      <c r="Z110" s="45"/>
+      <c r="AA110" s="45"/>
+      <c r="AB110" s="45"/>
+      <c r="AC110" s="45"/>
+      <c r="AD110" s="45"/>
+      <c r="AE110" s="45"/>
+      <c r="AF110" s="45"/>
+      <c r="AG110" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A111" s="51"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="56" t="s">
         <v>224</v>
       </c>
       <c r="D111" s="11" t="s">
@@ -5413,11 +8068,34 @@
       <c r="L111" s="15" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="35"/>
+      <c r="M111" s="48"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="45"/>
+      <c r="Q111" s="45"/>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="45"/>
+      <c r="U111" s="45"/>
+      <c r="V111" s="45"/>
+      <c r="W111" s="45"/>
+      <c r="X111" s="45"/>
+      <c r="Y111" s="45"/>
+      <c r="Z111" s="45"/>
+      <c r="AA111" s="45"/>
+      <c r="AB111" s="45"/>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="45"/>
+      <c r="AE111" s="45"/>
+      <c r="AF111" s="45"/>
+      <c r="AG111" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A112" s="51"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="56"/>
       <c r="D112" s="11" t="s">
         <v>26</v>
       </c>
@@ -5445,11 +8123,34 @@
       <c r="L112" s="15" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="30"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="35"/>
+      <c r="M112" s="48"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="45"/>
+      <c r="P112" s="45"/>
+      <c r="Q112" s="45"/>
+      <c r="R112" s="45"/>
+      <c r="S112" s="45"/>
+      <c r="T112" s="45"/>
+      <c r="U112" s="45"/>
+      <c r="V112" s="45"/>
+      <c r="W112" s="45"/>
+      <c r="X112" s="45"/>
+      <c r="Y112" s="45"/>
+      <c r="Z112" s="45"/>
+      <c r="AA112" s="45"/>
+      <c r="AB112" s="45"/>
+      <c r="AC112" s="45"/>
+      <c r="AD112" s="45"/>
+      <c r="AE112" s="45"/>
+      <c r="AF112" s="45"/>
+      <c r="AG112" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A113" s="51"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="56"/>
       <c r="D113" s="11" t="s">
         <v>29</v>
       </c>
@@ -5477,11 +8178,34 @@
       <c r="L113" s="15">
         <v>18122019</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="35"/>
+      <c r="M113" s="48"/>
+      <c r="N113" s="45"/>
+      <c r="O113" s="45"/>
+      <c r="P113" s="45"/>
+      <c r="Q113" s="45"/>
+      <c r="R113" s="45"/>
+      <c r="S113" s="45"/>
+      <c r="T113" s="45"/>
+      <c r="U113" s="45"/>
+      <c r="V113" s="45"/>
+      <c r="W113" s="45"/>
+      <c r="X113" s="45"/>
+      <c r="Y113" s="45"/>
+      <c r="Z113" s="45"/>
+      <c r="AA113" s="45"/>
+      <c r="AB113" s="45"/>
+      <c r="AC113" s="45"/>
+      <c r="AD113" s="45"/>
+      <c r="AE113" s="45"/>
+      <c r="AF113" s="45"/>
+      <c r="AG113" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A114" s="51"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="56"/>
       <c r="D114" s="11" t="s">
         <v>31</v>
       </c>
@@ -5509,11 +8233,34 @@
       <c r="L114" s="15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="35"/>
+      <c r="M114" s="48"/>
+      <c r="N114" s="45"/>
+      <c r="O114" s="45"/>
+      <c r="P114" s="45"/>
+      <c r="Q114" s="45"/>
+      <c r="R114" s="45"/>
+      <c r="S114" s="45"/>
+      <c r="T114" s="45"/>
+      <c r="U114" s="45"/>
+      <c r="V114" s="45"/>
+      <c r="W114" s="45"/>
+      <c r="X114" s="45"/>
+      <c r="Y114" s="45"/>
+      <c r="Z114" s="45"/>
+      <c r="AA114" s="45"/>
+      <c r="AB114" s="45"/>
+      <c r="AC114" s="45"/>
+      <c r="AD114" s="45"/>
+      <c r="AE114" s="45"/>
+      <c r="AF114" s="45"/>
+      <c r="AG114" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A115" s="51"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="56"/>
       <c r="D115" s="11" t="s">
         <v>34</v>
       </c>
@@ -5541,11 +8288,34 @@
       <c r="L115" s="15" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="35"/>
+      <c r="M115" s="48"/>
+      <c r="N115" s="45"/>
+      <c r="O115" s="45"/>
+      <c r="P115" s="45"/>
+      <c r="Q115" s="45"/>
+      <c r="R115" s="45"/>
+      <c r="S115" s="45"/>
+      <c r="T115" s="45"/>
+      <c r="U115" s="45"/>
+      <c r="V115" s="45"/>
+      <c r="W115" s="45"/>
+      <c r="X115" s="45"/>
+      <c r="Y115" s="45"/>
+      <c r="Z115" s="45"/>
+      <c r="AA115" s="45"/>
+      <c r="AB115" s="45"/>
+      <c r="AC115" s="45"/>
+      <c r="AD115" s="45"/>
+      <c r="AE115" s="45"/>
+      <c r="AF115" s="45"/>
+      <c r="AG115" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A116" s="51"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="56"/>
       <c r="D116" s="11" t="s">
         <v>37</v>
       </c>
@@ -5573,11 +8343,34 @@
       <c r="L116" s="15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="35"/>
+      <c r="M116" s="48"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="45"/>
+      <c r="P116" s="45"/>
+      <c r="Q116" s="45"/>
+      <c r="R116" s="45"/>
+      <c r="S116" s="45"/>
+      <c r="T116" s="45"/>
+      <c r="U116" s="45"/>
+      <c r="V116" s="45"/>
+      <c r="W116" s="45"/>
+      <c r="X116" s="45"/>
+      <c r="Y116" s="45"/>
+      <c r="Z116" s="45"/>
+      <c r="AA116" s="45"/>
+      <c r="AB116" s="45"/>
+      <c r="AC116" s="45"/>
+      <c r="AD116" s="45"/>
+      <c r="AE116" s="45"/>
+      <c r="AF116" s="45"/>
+      <c r="AG116" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A117" s="51"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="56"/>
       <c r="D117" s="11" t="s">
         <v>40</v>
       </c>
@@ -5605,11 +8398,34 @@
       <c r="L117" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="35"/>
+      <c r="M117" s="48"/>
+      <c r="N117" s="45"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="45"/>
+      <c r="S117" s="45"/>
+      <c r="T117" s="45"/>
+      <c r="U117" s="45"/>
+      <c r="V117" s="45"/>
+      <c r="W117" s="45"/>
+      <c r="X117" s="45"/>
+      <c r="Y117" s="45"/>
+      <c r="Z117" s="45"/>
+      <c r="AA117" s="45"/>
+      <c r="AB117" s="45"/>
+      <c r="AC117" s="45"/>
+      <c r="AD117" s="45"/>
+      <c r="AE117" s="45"/>
+      <c r="AF117" s="45"/>
+      <c r="AG117" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A118" s="51"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="11" t="s">
         <v>40</v>
       </c>
@@ -5637,11 +8453,34 @@
       <c r="L118" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="35"/>
+      <c r="M118" s="48"/>
+      <c r="N118" s="45"/>
+      <c r="O118" s="45"/>
+      <c r="P118" s="45"/>
+      <c r="Q118" s="45"/>
+      <c r="R118" s="45"/>
+      <c r="S118" s="45"/>
+      <c r="T118" s="45"/>
+      <c r="U118" s="45"/>
+      <c r="V118" s="45"/>
+      <c r="W118" s="45"/>
+      <c r="X118" s="45"/>
+      <c r="Y118" s="45"/>
+      <c r="Z118" s="45"/>
+      <c r="AA118" s="45"/>
+      <c r="AB118" s="45"/>
+      <c r="AC118" s="45"/>
+      <c r="AD118" s="45"/>
+      <c r="AE118" s="45"/>
+      <c r="AF118" s="45"/>
+      <c r="AG118" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A119" s="51"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="56"/>
       <c r="D119" s="11" t="s">
         <v>40</v>
       </c>
@@ -5669,11 +8508,34 @@
       <c r="L119" s="20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="35"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="45"/>
+      <c r="Q119" s="45"/>
+      <c r="R119" s="45"/>
+      <c r="S119" s="45"/>
+      <c r="T119" s="45"/>
+      <c r="U119" s="45"/>
+      <c r="V119" s="45"/>
+      <c r="W119" s="45"/>
+      <c r="X119" s="45"/>
+      <c r="Y119" s="45"/>
+      <c r="Z119" s="45"/>
+      <c r="AA119" s="45"/>
+      <c r="AB119" s="45"/>
+      <c r="AC119" s="45"/>
+      <c r="AD119" s="45"/>
+      <c r="AE119" s="45"/>
+      <c r="AF119" s="45"/>
+      <c r="AG119" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A120" s="51"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="56"/>
       <c r="D120" s="11" t="s">
         <v>54</v>
       </c>
@@ -5701,11 +8563,34 @@
       <c r="L120" s="20" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="35"/>
+      <c r="M120" s="48"/>
+      <c r="N120" s="45"/>
+      <c r="O120" s="45"/>
+      <c r="P120" s="45"/>
+      <c r="Q120" s="45"/>
+      <c r="R120" s="45"/>
+      <c r="S120" s="45"/>
+      <c r="T120" s="45"/>
+      <c r="U120" s="45"/>
+      <c r="V120" s="45"/>
+      <c r="W120" s="45"/>
+      <c r="X120" s="45"/>
+      <c r="Y120" s="45"/>
+      <c r="Z120" s="45"/>
+      <c r="AA120" s="45"/>
+      <c r="AB120" s="45"/>
+      <c r="AC120" s="45"/>
+      <c r="AD120" s="45"/>
+      <c r="AE120" s="45"/>
+      <c r="AF120" s="45"/>
+      <c r="AG120" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A121" s="51"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="56"/>
       <c r="D121" s="11" t="s">
         <v>57</v>
       </c>
@@ -5733,11 +8618,34 @@
       <c r="L121" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="35"/>
+      <c r="M121" s="48"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="45"/>
+      <c r="Q121" s="45"/>
+      <c r="R121" s="45"/>
+      <c r="S121" s="45"/>
+      <c r="T121" s="45"/>
+      <c r="U121" s="45"/>
+      <c r="V121" s="45"/>
+      <c r="W121" s="45"/>
+      <c r="X121" s="45"/>
+      <c r="Y121" s="45"/>
+      <c r="Z121" s="45"/>
+      <c r="AA121" s="45"/>
+      <c r="AB121" s="45"/>
+      <c r="AC121" s="45"/>
+      <c r="AD121" s="45"/>
+      <c r="AE121" s="45"/>
+      <c r="AF121" s="45"/>
+      <c r="AG121" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A122" s="51"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="56"/>
       <c r="D122" s="11" t="s">
         <v>60</v>
       </c>
@@ -5765,11 +8673,34 @@
       <c r="L122" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="35"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="45"/>
+      <c r="O122" s="45"/>
+      <c r="P122" s="45"/>
+      <c r="Q122" s="45"/>
+      <c r="R122" s="45"/>
+      <c r="S122" s="45"/>
+      <c r="T122" s="45"/>
+      <c r="U122" s="45"/>
+      <c r="V122" s="45"/>
+      <c r="W122" s="45"/>
+      <c r="X122" s="45"/>
+      <c r="Y122" s="45"/>
+      <c r="Z122" s="45"/>
+      <c r="AA122" s="45"/>
+      <c r="AB122" s="45"/>
+      <c r="AC122" s="45"/>
+      <c r="AD122" s="45"/>
+      <c r="AE122" s="45"/>
+      <c r="AF122" s="45"/>
+      <c r="AG122" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="51"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="56"/>
       <c r="D123" s="11" t="s">
         <v>62</v>
       </c>
@@ -5797,11 +8728,34 @@
       <c r="L123" s="20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="35"/>
+      <c r="M123" s="48"/>
+      <c r="N123" s="45"/>
+      <c r="O123" s="45"/>
+      <c r="P123" s="45"/>
+      <c r="Q123" s="45"/>
+      <c r="R123" s="45"/>
+      <c r="S123" s="45"/>
+      <c r="T123" s="45"/>
+      <c r="U123" s="45"/>
+      <c r="V123" s="45"/>
+      <c r="W123" s="45"/>
+      <c r="X123" s="45"/>
+      <c r="Y123" s="45"/>
+      <c r="Z123" s="45"/>
+      <c r="AA123" s="45"/>
+      <c r="AB123" s="45"/>
+      <c r="AC123" s="45"/>
+      <c r="AD123" s="45"/>
+      <c r="AE123" s="45"/>
+      <c r="AF123" s="45"/>
+      <c r="AG123" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="51"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="56"/>
       <c r="D124" s="11" t="s">
         <v>65</v>
       </c>
@@ -5829,11 +8783,34 @@
       <c r="L124" s="20" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="35"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="45"/>
+      <c r="O124" s="45"/>
+      <c r="P124" s="45"/>
+      <c r="Q124" s="45"/>
+      <c r="R124" s="45"/>
+      <c r="S124" s="45"/>
+      <c r="T124" s="45"/>
+      <c r="U124" s="45"/>
+      <c r="V124" s="45"/>
+      <c r="W124" s="45"/>
+      <c r="X124" s="45"/>
+      <c r="Y124" s="45"/>
+      <c r="Z124" s="45"/>
+      <c r="AA124" s="45"/>
+      <c r="AB124" s="45"/>
+      <c r="AC124" s="45"/>
+      <c r="AD124" s="45"/>
+      <c r="AE124" s="45"/>
+      <c r="AF124" s="45"/>
+      <c r="AG124" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="51"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="56"/>
       <c r="D125" s="11" t="s">
         <v>68</v>
       </c>
@@ -5861,11 +8838,34 @@
       <c r="L125" s="22" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="35"/>
+      <c r="M125" s="48"/>
+      <c r="N125" s="45"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
+      <c r="Q125" s="45"/>
+      <c r="R125" s="45"/>
+      <c r="S125" s="45"/>
+      <c r="T125" s="45"/>
+      <c r="U125" s="45"/>
+      <c r="V125" s="45"/>
+      <c r="W125" s="45"/>
+      <c r="X125" s="45"/>
+      <c r="Y125" s="45"/>
+      <c r="Z125" s="45"/>
+      <c r="AA125" s="45"/>
+      <c r="AB125" s="45"/>
+      <c r="AC125" s="45"/>
+      <c r="AD125" s="45"/>
+      <c r="AE125" s="45"/>
+      <c r="AF125" s="45"/>
+      <c r="AG125" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="56"/>
       <c r="D126" s="11" t="s">
         <v>71</v>
       </c>
@@ -5891,11 +8891,34 @@
       <c r="L126" s="20" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="35"/>
+      <c r="M126" s="48"/>
+      <c r="N126" s="45"/>
+      <c r="O126" s="45"/>
+      <c r="P126" s="45"/>
+      <c r="Q126" s="45"/>
+      <c r="R126" s="45"/>
+      <c r="S126" s="45"/>
+      <c r="T126" s="45"/>
+      <c r="U126" s="45"/>
+      <c r="V126" s="45"/>
+      <c r="W126" s="45"/>
+      <c r="X126" s="45"/>
+      <c r="Y126" s="45"/>
+      <c r="Z126" s="45"/>
+      <c r="AA126" s="45"/>
+      <c r="AB126" s="45"/>
+      <c r="AC126" s="45"/>
+      <c r="AD126" s="45"/>
+      <c r="AE126" s="45"/>
+      <c r="AF126" s="45"/>
+      <c r="AG126" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A127" s="51"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="56"/>
       <c r="D127" s="11" t="s">
         <v>74</v>
       </c>
@@ -5921,11 +8944,34 @@
       <c r="L127" s="22" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="36" t="s">
+      <c r="M127" s="48"/>
+      <c r="N127" s="45"/>
+      <c r="O127" s="45"/>
+      <c r="P127" s="45"/>
+      <c r="Q127" s="45"/>
+      <c r="R127" s="45"/>
+      <c r="S127" s="45"/>
+      <c r="T127" s="45"/>
+      <c r="U127" s="45"/>
+      <c r="V127" s="45"/>
+      <c r="W127" s="45"/>
+      <c r="X127" s="45"/>
+      <c r="Y127" s="45"/>
+      <c r="Z127" s="45"/>
+      <c r="AA127" s="45"/>
+      <c r="AB127" s="45"/>
+      <c r="AC127" s="45"/>
+      <c r="AD127" s="45"/>
+      <c r="AE127" s="45"/>
+      <c r="AF127" s="45"/>
+      <c r="AG127" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A128" s="51"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="57" t="s">
         <v>120</v>
       </c>
       <c r="D128" s="11" t="s">
@@ -5955,11 +9001,34 @@
       <c r="L128" s="23">
         <v>43817</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="37"/>
+      <c r="M128" s="48"/>
+      <c r="N128" s="45"/>
+      <c r="O128" s="45"/>
+      <c r="P128" s="45"/>
+      <c r="Q128" s="45"/>
+      <c r="R128" s="45"/>
+      <c r="S128" s="45"/>
+      <c r="T128" s="45"/>
+      <c r="U128" s="45"/>
+      <c r="V128" s="45"/>
+      <c r="W128" s="45"/>
+      <c r="X128" s="45"/>
+      <c r="Y128" s="45"/>
+      <c r="Z128" s="45"/>
+      <c r="AA128" s="45"/>
+      <c r="AB128" s="45"/>
+      <c r="AC128" s="45"/>
+      <c r="AD128" s="45"/>
+      <c r="AE128" s="45"/>
+      <c r="AF128" s="45"/>
+      <c r="AG128" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A129" s="51"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="11" t="s">
         <v>80</v>
       </c>
@@ -5983,11 +9052,34 @@
         <v>20</v>
       </c>
       <c r="L129" s="15"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="38"/>
+      <c r="M129" s="48"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="45"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="45"/>
+      <c r="S129" s="45"/>
+      <c r="T129" s="45"/>
+      <c r="U129" s="45"/>
+      <c r="V129" s="45"/>
+      <c r="W129" s="45"/>
+      <c r="X129" s="45"/>
+      <c r="Y129" s="45"/>
+      <c r="Z129" s="45"/>
+      <c r="AA129" s="45"/>
+      <c r="AB129" s="45"/>
+      <c r="AC129" s="45"/>
+      <c r="AD129" s="45"/>
+      <c r="AE129" s="45"/>
+      <c r="AF129" s="45"/>
+      <c r="AG129" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A130" s="52"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="59"/>
       <c r="D130" s="13" t="s">
         <v>82</v>
       </c>
@@ -6013,12 +9105,33 @@
       <c r="L130" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L131" s="4"/>
+      <c r="M130" s="49"/>
+      <c r="N130" s="45"/>
+      <c r="O130" s="45"/>
+      <c r="P130" s="45"/>
+      <c r="Q130" s="45"/>
+      <c r="R130" s="45"/>
+      <c r="S130" s="45"/>
+      <c r="T130" s="45"/>
+      <c r="U130" s="45"/>
+      <c r="V130" s="45"/>
+      <c r="W130" s="45"/>
+      <c r="X130" s="45"/>
+      <c r="Y130" s="45"/>
+      <c r="Z130" s="45"/>
+      <c r="AA130" s="45"/>
+      <c r="AB130" s="45"/>
+      <c r="AC130" s="45"/>
+      <c r="AD130" s="45"/>
+      <c r="AE130" s="45"/>
+      <c r="AF130" s="45"/>
+      <c r="AG130" s="44" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="C86:C88"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C3:C22"/>
@@ -6027,14 +9140,7 @@
     <mergeCell ref="B26:B46"/>
     <mergeCell ref="C27:C43"/>
     <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A67"/>
-    <mergeCell ref="B47:B67"/>
-    <mergeCell ref="C48:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A68:A88"/>
-    <mergeCell ref="B68:B88"/>
-    <mergeCell ref="C69:C85"/>
-    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="M1:M130"/>
     <mergeCell ref="A89:A109"/>
     <mergeCell ref="B89:B109"/>
     <mergeCell ref="C90:C106"/>
@@ -6043,6 +9149,13 @@
     <mergeCell ref="B110:B130"/>
     <mergeCell ref="C111:C127"/>
     <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A47:A67"/>
+    <mergeCell ref="B47:B67"/>
+    <mergeCell ref="C48:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A68:A88"/>
+    <mergeCell ref="B68:B88"/>
+    <mergeCell ref="C69:C85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E130">

--- a/testdata/TransactionHistoryInquiry.xlsx
+++ b/testdata/TransactionHistoryInquiry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data - 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MightyPay\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D69E1-D5D5-42AC-9DF5-AB925B74244B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -29,17 +30,23 @@
     <definedName name="OLE_LINK63" localSheetId="1">TransactionHistoryInquiry!#REF!</definedName>
     <definedName name="OLE_LINK8" localSheetId="1">TransactionHistoryInquiry!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="278">
   <si>
     <t>S.NO</t>
   </si>
@@ -1094,7 +1101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1499,14 +1506,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1529,20 +1536,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 8" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1819,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1897,14 +1904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AF130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="L113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AD113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F130"/>
+      <selection pane="bottomRight" activeCell="AE113" sqref="AE113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1932,7 @@
     <col min="14" max="16384" width="51.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1969,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="57" t="s">
         <v>277</v>
       </c>
       <c r="N1" s="46" t="s">
@@ -1987,46 +1994,43 @@
         <v>7</v>
       </c>
       <c r="U1" s="46" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="V1" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W1" s="46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X1" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z1" s="46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA1" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB1" s="46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC1" s="46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD1" s="46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE1" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF1" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AF1" s="43" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="50">
         <v>1</v>
       </c>
@@ -2063,7 +2067,7 @@
       <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="48"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
@@ -2082,12 +2086,11 @@
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
       <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF2" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="54"/>
       <c r="C3" s="56" t="s">
@@ -2120,7 +2123,7 @@
       <c r="L3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="45"/>
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
@@ -2139,12 +2142,11 @@
       <c r="AC3" s="45"/>
       <c r="AD3" s="45"/>
       <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF3" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="54"/>
       <c r="C4" s="56"/>
@@ -2175,7 +2177,7 @@
       <c r="L4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="45"/>
       <c r="O4" s="45"/>
       <c r="P4" s="45"/>
@@ -2194,12 +2196,11 @@
       <c r="AC4" s="45"/>
       <c r="AD4" s="45"/>
       <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF4" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="54"/>
       <c r="C5" s="56"/>
@@ -2230,7 +2231,7 @@
       <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="48"/>
+      <c r="M5" s="58"/>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
       <c r="P5" s="45"/>
@@ -2249,12 +2250,11 @@
       <c r="AC5" s="45"/>
       <c r="AD5" s="45"/>
       <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF5" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="54"/>
       <c r="C6" s="56"/>
@@ -2285,7 +2285,7 @@
       <c r="L6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="58"/>
       <c r="N6" s="45"/>
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
@@ -2304,12 +2304,11 @@
       <c r="AC6" s="45"/>
       <c r="AD6" s="45"/>
       <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF6" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="54"/>
       <c r="C7" s="56"/>
@@ -2340,7 +2339,7 @@
       <c r="L7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="48"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="45"/>
       <c r="O7" s="45"/>
       <c r="P7" s="45"/>
@@ -2359,12 +2358,11 @@
       <c r="AC7" s="45"/>
       <c r="AD7" s="45"/>
       <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF7" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="54"/>
       <c r="C8" s="56"/>
@@ -2395,7 +2393,7 @@
       <c r="L8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="58"/>
       <c r="N8" s="45"/>
       <c r="O8" s="45"/>
       <c r="P8" s="45"/>
@@ -2414,12 +2412,11 @@
       <c r="AC8" s="45"/>
       <c r="AD8" s="45"/>
       <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF8" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="54"/>
       <c r="C9" s="56"/>
@@ -2450,7 +2447,7 @@
       <c r="L9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="48"/>
+      <c r="M9" s="58"/>
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
       <c r="P9" s="45"/>
@@ -2469,12 +2466,11 @@
       <c r="AC9" s="45"/>
       <c r="AD9" s="45"/>
       <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF9" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="54"/>
       <c r="C10" s="56"/>
@@ -2505,7 +2501,7 @@
       <c r="L10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="48"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
@@ -2524,12 +2520,11 @@
       <c r="AC10" s="45"/>
       <c r="AD10" s="45"/>
       <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF10" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="54"/>
       <c r="C11" s="56"/>
@@ -2560,7 +2555,7 @@
       <c r="L11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="48"/>
+      <c r="M11" s="58"/>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
       <c r="P11" s="45"/>
@@ -2579,12 +2574,11 @@
       <c r="AC11" s="45"/>
       <c r="AD11" s="45"/>
       <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF11" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="54"/>
       <c r="C12" s="56"/>
@@ -2615,7 +2609,7 @@
       <c r="L12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="48"/>
+      <c r="M12" s="58"/>
       <c r="N12" s="45"/>
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
@@ -2634,12 +2628,11 @@
       <c r="AC12" s="45"/>
       <c r="AD12" s="45"/>
       <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF12" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="54"/>
       <c r="C13" s="56"/>
@@ -2670,7 +2663,7 @@
       <c r="L13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="48"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
       <c r="P13" s="45"/>
@@ -2689,12 +2682,11 @@
       <c r="AC13" s="45"/>
       <c r="AD13" s="45"/>
       <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF13" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="54"/>
       <c r="C14" s="56"/>
@@ -2725,7 +2717,7 @@
       <c r="L14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="48"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
@@ -2744,12 +2736,11 @@
       <c r="AC14" s="45"/>
       <c r="AD14" s="45"/>
       <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF14" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="54"/>
       <c r="C15" s="56"/>
@@ -2780,7 +2771,7 @@
       <c r="L15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="48"/>
+      <c r="M15" s="58"/>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
       <c r="P15" s="45"/>
@@ -2799,12 +2790,11 @@
       <c r="AC15" s="45"/>
       <c r="AD15" s="45"/>
       <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF15" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="54"/>
       <c r="C16" s="56"/>
@@ -2835,7 +2825,7 @@
       <c r="L16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="48"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
       <c r="P16" s="45"/>
@@ -2854,12 +2844,11 @@
       <c r="AC16" s="45"/>
       <c r="AD16" s="45"/>
       <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF16" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="54"/>
       <c r="C17" s="56"/>
@@ -2890,7 +2879,7 @@
       <c r="L17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="48"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
       <c r="P17" s="45"/>
@@ -2909,12 +2898,11 @@
       <c r="AC17" s="45"/>
       <c r="AD17" s="45"/>
       <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF17" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="54"/>
       <c r="C18" s="56"/>
@@ -2945,7 +2933,7 @@
       <c r="L18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="48"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
@@ -2964,12 +2952,11 @@
       <c r="AC18" s="45"/>
       <c r="AD18" s="45"/>
       <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF18" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="54"/>
       <c r="C19" s="56"/>
@@ -3000,7 +2987,7 @@
       <c r="L19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="48"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
@@ -3019,12 +3006,11 @@
       <c r="AC19" s="45"/>
       <c r="AD19" s="45"/>
       <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF19" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="54"/>
       <c r="C20" s="56"/>
@@ -3055,7 +3041,7 @@
       <c r="L20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="48"/>
+      <c r="M20" s="58"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
@@ -3074,12 +3060,11 @@
       <c r="AC20" s="45"/>
       <c r="AD20" s="45"/>
       <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF20" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56"/>
@@ -3108,7 +3093,7 @@
       <c r="L21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="48"/>
+      <c r="M21" s="58"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
       <c r="P21" s="45"/>
@@ -3127,12 +3112,11 @@
       <c r="AC21" s="45"/>
       <c r="AD21" s="45"/>
       <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF21" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="54"/>
       <c r="C22" s="56"/>
@@ -3161,7 +3145,7 @@
       <c r="L22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="48"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
@@ -3180,15 +3164,14 @@
       <c r="AC22" s="45"/>
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF22" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="47" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -3218,7 +3201,7 @@
       <c r="L23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="48"/>
+      <c r="M23" s="58"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
       <c r="P23" s="45"/>
@@ -3237,15 +3220,14 @@
       <c r="AC23" s="45"/>
       <c r="AD23" s="45"/>
       <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF23" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
@@ -3271,7 +3253,7 @@
       <c r="L24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="48"/>
+      <c r="M24" s="58"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
@@ -3290,15 +3272,14 @@
       <c r="AC24" s="45"/>
       <c r="AD24" s="45"/>
       <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF24" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="59"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="13" t="s">
         <v>82</v>
       </c>
@@ -3326,7 +3307,7 @@
       <c r="L25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="48"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
@@ -3345,12 +3326,11 @@
       <c r="AC25" s="45"/>
       <c r="AD25" s="45"/>
       <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF25" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <v>2</v>
       </c>
@@ -3387,7 +3367,7 @@
       <c r="L26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
@@ -3406,12 +3386,11 @@
       <c r="AC26" s="45"/>
       <c r="AD26" s="45"/>
       <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF26" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="54"/>
       <c r="C27" s="56" t="s">
@@ -3444,7 +3423,7 @@
       <c r="L27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="48"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
@@ -3463,12 +3442,11 @@
       <c r="AC27" s="45"/>
       <c r="AD27" s="45"/>
       <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF27" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="54"/>
       <c r="C28" s="56"/>
@@ -3499,7 +3477,7 @@
       <c r="L28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="48"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
       <c r="P28" s="45"/>
@@ -3518,12 +3496,11 @@
       <c r="AC28" s="45"/>
       <c r="AD28" s="45"/>
       <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF28" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="54"/>
       <c r="C29" s="56"/>
@@ -3554,7 +3531,7 @@
       <c r="L29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="48"/>
+      <c r="M29" s="58"/>
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
@@ -3573,12 +3550,11 @@
       <c r="AC29" s="45"/>
       <c r="AD29" s="45"/>
       <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF29" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="54"/>
       <c r="C30" s="56"/>
@@ -3609,7 +3585,7 @@
       <c r="L30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="48"/>
+      <c r="M30" s="58"/>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
       <c r="P30" s="45"/>
@@ -3628,12 +3604,11 @@
       <c r="AC30" s="45"/>
       <c r="AD30" s="45"/>
       <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF30" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="54"/>
       <c r="C31" s="56"/>
@@ -3664,7 +3639,7 @@
       <c r="L31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="48"/>
+      <c r="M31" s="58"/>
       <c r="N31" s="45"/>
       <c r="O31" s="45"/>
       <c r="P31" s="45"/>
@@ -3683,12 +3658,11 @@
       <c r="AC31" s="45"/>
       <c r="AD31" s="45"/>
       <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF31" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="54"/>
       <c r="C32" s="56"/>
@@ -3719,7 +3693,7 @@
       <c r="L32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="48"/>
+      <c r="M32" s="58"/>
       <c r="N32" s="45"/>
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
@@ -3738,12 +3712,11 @@
       <c r="AC32" s="45"/>
       <c r="AD32" s="45"/>
       <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF32" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="54"/>
       <c r="C33" s="56"/>
@@ -3774,7 +3747,7 @@
       <c r="L33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="48"/>
+      <c r="M33" s="58"/>
       <c r="N33" s="45"/>
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
@@ -3793,12 +3766,11 @@
       <c r="AC33" s="45"/>
       <c r="AD33" s="45"/>
       <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF33" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="54"/>
       <c r="C34" s="56"/>
@@ -3829,7 +3801,7 @@
       <c r="L34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="48"/>
+      <c r="M34" s="58"/>
       <c r="N34" s="45"/>
       <c r="O34" s="45"/>
       <c r="P34" s="45"/>
@@ -3848,12 +3820,11 @@
       <c r="AC34" s="45"/>
       <c r="AD34" s="45"/>
       <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF34" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="54"/>
       <c r="C35" s="56"/>
@@ -3884,7 +3855,7 @@
       <c r="L35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="48"/>
+      <c r="M35" s="58"/>
       <c r="N35" s="45"/>
       <c r="O35" s="45"/>
       <c r="P35" s="45"/>
@@ -3903,12 +3874,11 @@
       <c r="AC35" s="45"/>
       <c r="AD35" s="45"/>
       <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF35" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="54"/>
       <c r="C36" s="56"/>
@@ -3939,7 +3909,7 @@
       <c r="L36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="48"/>
+      <c r="M36" s="58"/>
       <c r="N36" s="45"/>
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
@@ -3958,12 +3928,11 @@
       <c r="AC36" s="45"/>
       <c r="AD36" s="45"/>
       <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF36" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="54"/>
       <c r="C37" s="56"/>
@@ -3994,7 +3963,7 @@
       <c r="L37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="48"/>
+      <c r="M37" s="58"/>
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
@@ -4013,12 +3982,11 @@
       <c r="AC37" s="45"/>
       <c r="AD37" s="45"/>
       <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF37" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="54"/>
       <c r="C38" s="56"/>
@@ -4049,7 +4017,7 @@
       <c r="L38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="48"/>
+      <c r="M38" s="58"/>
       <c r="N38" s="45"/>
       <c r="O38" s="45"/>
       <c r="P38" s="45"/>
@@ -4068,12 +4036,11 @@
       <c r="AC38" s="45"/>
       <c r="AD38" s="45"/>
       <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF38" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="54"/>
       <c r="C39" s="56"/>
@@ -4104,7 +4071,7 @@
       <c r="L39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="48"/>
+      <c r="M39" s="58"/>
       <c r="N39" s="45"/>
       <c r="O39" s="45"/>
       <c r="P39" s="45"/>
@@ -4123,12 +4090,11 @@
       <c r="AC39" s="45"/>
       <c r="AD39" s="45"/>
       <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF39" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="54"/>
       <c r="C40" s="56"/>
@@ -4159,7 +4125,7 @@
       <c r="L40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="48"/>
+      <c r="M40" s="58"/>
       <c r="N40" s="45"/>
       <c r="O40" s="45"/>
       <c r="P40" s="45"/>
@@ -4178,12 +4144,11 @@
       <c r="AC40" s="45"/>
       <c r="AD40" s="45"/>
       <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF40" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="B41" s="54"/>
       <c r="C41" s="56"/>
@@ -4214,7 +4179,7 @@
       <c r="L41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="48"/>
+      <c r="M41" s="58"/>
       <c r="N41" s="45"/>
       <c r="O41" s="45"/>
       <c r="P41" s="45"/>
@@ -4233,12 +4198,11 @@
       <c r="AC41" s="45"/>
       <c r="AD41" s="45"/>
       <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF41" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
       <c r="B42" s="54"/>
       <c r="C42" s="56"/>
@@ -4267,7 +4231,7 @@
       <c r="L42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="48"/>
+      <c r="M42" s="58"/>
       <c r="N42" s="45"/>
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
@@ -4286,12 +4250,11 @@
       <c r="AC42" s="45"/>
       <c r="AD42" s="45"/>
       <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF42" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
       <c r="B43" s="54"/>
       <c r="C43" s="56"/>
@@ -4320,7 +4283,7 @@
       <c r="L43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="48"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="45"/>
       <c r="O43" s="45"/>
       <c r="P43" s="45"/>
@@ -4339,15 +4302,14 @@
       <c r="AC43" s="45"/>
       <c r="AD43" s="45"/>
       <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF43" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
       <c r="B44" s="54"/>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="47" t="s">
         <v>120</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -4377,7 +4339,7 @@
       <c r="L44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="48"/>
+      <c r="M44" s="58"/>
       <c r="N44" s="45"/>
       <c r="O44" s="45"/>
       <c r="P44" s="45"/>
@@ -4396,15 +4358,14 @@
       <c r="AC44" s="45"/>
       <c r="AD44" s="45"/>
       <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF44" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
       <c r="B45" s="54"/>
-      <c r="C45" s="58"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="11" t="s">
         <v>80</v>
       </c>
@@ -4428,7 +4389,7 @@
       <c r="L45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="48"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="45"/>
       <c r="O45" s="45"/>
       <c r="P45" s="45"/>
@@ -4447,15 +4408,14 @@
       <c r="AC45" s="45"/>
       <c r="AD45" s="45"/>
       <c r="AE45" s="45"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF45" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="52"/>
       <c r="B46" s="55"/>
-      <c r="C46" s="59"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="13" t="s">
         <v>82</v>
       </c>
@@ -4481,7 +4441,7 @@
       <c r="L46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="48"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="45"/>
       <c r="O46" s="45"/>
       <c r="P46" s="45"/>
@@ -4500,12 +4460,11 @@
       <c r="AC46" s="45"/>
       <c r="AD46" s="45"/>
       <c r="AE46" s="45"/>
-      <c r="AF46" s="45"/>
-      <c r="AG46" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF46" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>3</v>
       </c>
@@ -4542,7 +4501,7 @@
       <c r="L47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="48"/>
+      <c r="M47" s="58"/>
       <c r="N47" s="45"/>
       <c r="O47" s="45"/>
       <c r="P47" s="45"/>
@@ -4561,12 +4520,11 @@
       <c r="AC47" s="45"/>
       <c r="AD47" s="45"/>
       <c r="AE47" s="45"/>
-      <c r="AF47" s="45"/>
-      <c r="AG47" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF47" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="54"/>
       <c r="C48" s="56" t="s">
@@ -4599,7 +4557,7 @@
       <c r="L48" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="48"/>
+      <c r="M48" s="58"/>
       <c r="N48" s="45"/>
       <c r="O48" s="45"/>
       <c r="P48" s="45"/>
@@ -4618,12 +4576,11 @@
       <c r="AC48" s="45"/>
       <c r="AD48" s="45"/>
       <c r="AE48" s="45"/>
-      <c r="AF48" s="45"/>
-      <c r="AG48" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF48" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="54"/>
       <c r="C49" s="56"/>
@@ -4654,7 +4611,7 @@
       <c r="L49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="48"/>
+      <c r="M49" s="58"/>
       <c r="N49" s="45"/>
       <c r="O49" s="45"/>
       <c r="P49" s="45"/>
@@ -4673,12 +4630,11 @@
       <c r="AC49" s="45"/>
       <c r="AD49" s="45"/>
       <c r="AE49" s="45"/>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF49" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="54"/>
       <c r="C50" s="56"/>
@@ -4709,7 +4665,7 @@
       <c r="L50" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M50" s="48"/>
+      <c r="M50" s="58"/>
       <c r="N50" s="45"/>
       <c r="O50" s="45"/>
       <c r="P50" s="45"/>
@@ -4728,12 +4684,11 @@
       <c r="AC50" s="45"/>
       <c r="AD50" s="45"/>
       <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF50" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="54"/>
       <c r="C51" s="56"/>
@@ -4764,7 +4719,7 @@
       <c r="L51" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="48"/>
+      <c r="M51" s="58"/>
       <c r="N51" s="45"/>
       <c r="O51" s="45"/>
       <c r="P51" s="45"/>
@@ -4783,12 +4738,11 @@
       <c r="AC51" s="45"/>
       <c r="AD51" s="45"/>
       <c r="AE51" s="45"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF51" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="54"/>
       <c r="C52" s="56"/>
@@ -4819,7 +4773,7 @@
       <c r="L52" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="48"/>
+      <c r="M52" s="58"/>
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="45"/>
@@ -4838,12 +4792,11 @@
       <c r="AC52" s="45"/>
       <c r="AD52" s="45"/>
       <c r="AE52" s="45"/>
-      <c r="AF52" s="45"/>
-      <c r="AG52" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF52" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="54"/>
       <c r="C53" s="56"/>
@@ -4874,7 +4827,7 @@
       <c r="L53" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="48"/>
+      <c r="M53" s="58"/>
       <c r="N53" s="45"/>
       <c r="O53" s="45"/>
       <c r="P53" s="45"/>
@@ -4893,12 +4846,11 @@
       <c r="AC53" s="45"/>
       <c r="AD53" s="45"/>
       <c r="AE53" s="45"/>
-      <c r="AF53" s="45"/>
-      <c r="AG53" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF53" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
       <c r="B54" s="54"/>
       <c r="C54" s="56"/>
@@ -4929,7 +4881,7 @@
       <c r="L54" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="48"/>
+      <c r="M54" s="58"/>
       <c r="N54" s="45"/>
       <c r="O54" s="45"/>
       <c r="P54" s="45"/>
@@ -4948,12 +4900,11 @@
       <c r="AC54" s="45"/>
       <c r="AD54" s="45"/>
       <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF54" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
       <c r="B55" s="54"/>
       <c r="C55" s="56"/>
@@ -4984,7 +4935,7 @@
       <c r="L55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="48"/>
+      <c r="M55" s="58"/>
       <c r="N55" s="45"/>
       <c r="O55" s="45"/>
       <c r="P55" s="45"/>
@@ -5003,12 +4954,11 @@
       <c r="AC55" s="45"/>
       <c r="AD55" s="45"/>
       <c r="AE55" s="45"/>
-      <c r="AF55" s="45"/>
-      <c r="AG55" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF55" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
       <c r="B56" s="54"/>
       <c r="C56" s="56"/>
@@ -5039,7 +4989,7 @@
       <c r="L56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="48"/>
+      <c r="M56" s="58"/>
       <c r="N56" s="45"/>
       <c r="O56" s="45"/>
       <c r="P56" s="45"/>
@@ -5058,12 +5008,11 @@
       <c r="AC56" s="45"/>
       <c r="AD56" s="45"/>
       <c r="AE56" s="45"/>
-      <c r="AF56" s="45"/>
-      <c r="AG56" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF56" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="51"/>
       <c r="B57" s="54"/>
       <c r="C57" s="56"/>
@@ -5094,7 +5043,7 @@
       <c r="L57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M57" s="48"/>
+      <c r="M57" s="58"/>
       <c r="N57" s="45"/>
       <c r="O57" s="45"/>
       <c r="P57" s="45"/>
@@ -5113,12 +5062,11 @@
       <c r="AC57" s="45"/>
       <c r="AD57" s="45"/>
       <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF57" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="51"/>
       <c r="B58" s="54"/>
       <c r="C58" s="56"/>
@@ -5149,7 +5097,7 @@
       <c r="L58" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="48"/>
+      <c r="M58" s="58"/>
       <c r="N58" s="45"/>
       <c r="O58" s="45"/>
       <c r="P58" s="45"/>
@@ -5168,12 +5116,11 @@
       <c r="AC58" s="45"/>
       <c r="AD58" s="45"/>
       <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF58" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="51"/>
       <c r="B59" s="54"/>
       <c r="C59" s="56"/>
@@ -5204,7 +5151,7 @@
       <c r="L59" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="48"/>
+      <c r="M59" s="58"/>
       <c r="N59" s="45"/>
       <c r="O59" s="45"/>
       <c r="P59" s="45"/>
@@ -5223,12 +5170,11 @@
       <c r="AC59" s="45"/>
       <c r="AD59" s="45"/>
       <c r="AE59" s="45"/>
-      <c r="AF59" s="45"/>
-      <c r="AG59" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF59" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="51"/>
       <c r="B60" s="54"/>
       <c r="C60" s="56"/>
@@ -5259,7 +5205,7 @@
       <c r="L60" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M60" s="48"/>
+      <c r="M60" s="58"/>
       <c r="N60" s="45"/>
       <c r="O60" s="45"/>
       <c r="P60" s="45"/>
@@ -5278,12 +5224,11 @@
       <c r="AC60" s="45"/>
       <c r="AD60" s="45"/>
       <c r="AE60" s="45"/>
-      <c r="AF60" s="45"/>
-      <c r="AG60" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF60" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="51"/>
       <c r="B61" s="54"/>
       <c r="C61" s="56"/>
@@ -5314,7 +5259,7 @@
       <c r="L61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="48"/>
+      <c r="M61" s="58"/>
       <c r="N61" s="45"/>
       <c r="O61" s="45"/>
       <c r="P61" s="45"/>
@@ -5333,12 +5278,11 @@
       <c r="AC61" s="45"/>
       <c r="AD61" s="45"/>
       <c r="AE61" s="45"/>
-      <c r="AF61" s="45"/>
-      <c r="AG61" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF61" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="51"/>
       <c r="B62" s="54"/>
       <c r="C62" s="56"/>
@@ -5369,7 +5313,7 @@
       <c r="L62" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M62" s="48"/>
+      <c r="M62" s="58"/>
       <c r="N62" s="45"/>
       <c r="O62" s="45"/>
       <c r="P62" s="45"/>
@@ -5388,12 +5332,11 @@
       <c r="AC62" s="45"/>
       <c r="AD62" s="45"/>
       <c r="AE62" s="45"/>
-      <c r="AF62" s="45"/>
-      <c r="AG62" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF62" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
       <c r="B63" s="54"/>
       <c r="C63" s="56"/>
@@ -5422,7 +5365,7 @@
       <c r="L63" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M63" s="48"/>
+      <c r="M63" s="58"/>
       <c r="N63" s="45"/>
       <c r="O63" s="45"/>
       <c r="P63" s="45"/>
@@ -5441,12 +5384,11 @@
       <c r="AC63" s="45"/>
       <c r="AD63" s="45"/>
       <c r="AE63" s="45"/>
-      <c r="AF63" s="45"/>
-      <c r="AG63" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF63" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="51"/>
       <c r="B64" s="54"/>
       <c r="C64" s="56"/>
@@ -5475,7 +5417,7 @@
       <c r="L64" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M64" s="48"/>
+      <c r="M64" s="58"/>
       <c r="N64" s="45"/>
       <c r="O64" s="45"/>
       <c r="P64" s="45"/>
@@ -5494,15 +5436,14 @@
       <c r="AC64" s="45"/>
       <c r="AD64" s="45"/>
       <c r="AE64" s="45"/>
-      <c r="AF64" s="45"/>
-      <c r="AG64" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF64" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
       <c r="B65" s="54"/>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="47" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -5532,7 +5473,7 @@
       <c r="L65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="48"/>
+      <c r="M65" s="58"/>
       <c r="N65" s="45"/>
       <c r="O65" s="45"/>
       <c r="P65" s="45"/>
@@ -5551,15 +5492,14 @@
       <c r="AC65" s="45"/>
       <c r="AD65" s="45"/>
       <c r="AE65" s="45"/>
-      <c r="AF65" s="45"/>
-      <c r="AG65" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF65" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="51"/>
       <c r="B66" s="54"/>
-      <c r="C66" s="58"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="11" t="s">
         <v>80</v>
       </c>
@@ -5583,7 +5523,7 @@
       <c r="L66" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M66" s="48"/>
+      <c r="M66" s="58"/>
       <c r="N66" s="45"/>
       <c r="O66" s="45"/>
       <c r="P66" s="45"/>
@@ -5602,15 +5542,14 @@
       <c r="AC66" s="45"/>
       <c r="AD66" s="45"/>
       <c r="AE66" s="45"/>
-      <c r="AF66" s="45"/>
-      <c r="AG66" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF66" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="52"/>
       <c r="B67" s="55"/>
-      <c r="C67" s="59"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="13" t="s">
         <v>82</v>
       </c>
@@ -5636,7 +5575,7 @@
       <c r="L67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M67" s="48"/>
+      <c r="M67" s="58"/>
       <c r="N67" s="45"/>
       <c r="O67" s="45"/>
       <c r="P67" s="45"/>
@@ -5655,12 +5594,11 @@
       <c r="AC67" s="45"/>
       <c r="AD67" s="45"/>
       <c r="AE67" s="45"/>
-      <c r="AF67" s="45"/>
-      <c r="AG67" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF67" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="50">
         <v>4</v>
       </c>
@@ -5697,7 +5635,7 @@
       <c r="L68" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="48"/>
+      <c r="M68" s="58"/>
       <c r="N68" s="45"/>
       <c r="O68" s="45"/>
       <c r="P68" s="45"/>
@@ -5716,12 +5654,11 @@
       <c r="AC68" s="45"/>
       <c r="AD68" s="45"/>
       <c r="AE68" s="45"/>
-      <c r="AF68" s="45"/>
-      <c r="AG68" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF68" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="51"/>
       <c r="B69" s="54"/>
       <c r="C69" s="56" t="s">
@@ -5754,7 +5691,7 @@
       <c r="L69" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M69" s="48"/>
+      <c r="M69" s="58"/>
       <c r="N69" s="45"/>
       <c r="O69" s="45"/>
       <c r="P69" s="45"/>
@@ -5773,12 +5710,11 @@
       <c r="AC69" s="45"/>
       <c r="AD69" s="45"/>
       <c r="AE69" s="45"/>
-      <c r="AF69" s="45"/>
-      <c r="AG69" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF69" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="51"/>
       <c r="B70" s="54"/>
       <c r="C70" s="56"/>
@@ -5809,7 +5745,7 @@
       <c r="L70" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M70" s="48"/>
+      <c r="M70" s="58"/>
       <c r="N70" s="45"/>
       <c r="O70" s="45"/>
       <c r="P70" s="45"/>
@@ -5828,12 +5764,11 @@
       <c r="AC70" s="45"/>
       <c r="AD70" s="45"/>
       <c r="AE70" s="45"/>
-      <c r="AF70" s="45"/>
-      <c r="AG70" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF70" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="51"/>
       <c r="B71" s="54"/>
       <c r="C71" s="56"/>
@@ -5864,7 +5799,7 @@
       <c r="L71" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M71" s="48"/>
+      <c r="M71" s="58"/>
       <c r="N71" s="45"/>
       <c r="O71" s="45"/>
       <c r="P71" s="45"/>
@@ -5883,12 +5818,11 @@
       <c r="AC71" s="45"/>
       <c r="AD71" s="45"/>
       <c r="AE71" s="45"/>
-      <c r="AF71" s="45"/>
-      <c r="AG71" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF71" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="51"/>
       <c r="B72" s="54"/>
       <c r="C72" s="56"/>
@@ -5919,7 +5853,7 @@
       <c r="L72" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M72" s="48"/>
+      <c r="M72" s="58"/>
       <c r="N72" s="45"/>
       <c r="O72" s="45"/>
       <c r="P72" s="45"/>
@@ -5938,12 +5872,11 @@
       <c r="AC72" s="45"/>
       <c r="AD72" s="45"/>
       <c r="AE72" s="45"/>
-      <c r="AF72" s="45"/>
-      <c r="AG72" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF72" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="51"/>
       <c r="B73" s="54"/>
       <c r="C73" s="56"/>
@@ -5974,7 +5907,7 @@
       <c r="L73" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M73" s="48"/>
+      <c r="M73" s="58"/>
       <c r="N73" s="45"/>
       <c r="O73" s="45"/>
       <c r="P73" s="45"/>
@@ -5993,12 +5926,11 @@
       <c r="AC73" s="45"/>
       <c r="AD73" s="45"/>
       <c r="AE73" s="45"/>
-      <c r="AF73" s="45"/>
-      <c r="AG73" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF73" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="51"/>
       <c r="B74" s="54"/>
       <c r="C74" s="56"/>
@@ -6029,7 +5961,7 @@
       <c r="L74" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M74" s="48"/>
+      <c r="M74" s="58"/>
       <c r="N74" s="45"/>
       <c r="O74" s="45"/>
       <c r="P74" s="45"/>
@@ -6048,12 +5980,11 @@
       <c r="AC74" s="45"/>
       <c r="AD74" s="45"/>
       <c r="AE74" s="45"/>
-      <c r="AF74" s="45"/>
-      <c r="AG74" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF74" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="51"/>
       <c r="B75" s="54"/>
       <c r="C75" s="56"/>
@@ -6084,7 +6015,7 @@
       <c r="L75" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M75" s="48"/>
+      <c r="M75" s="58"/>
       <c r="N75" s="45"/>
       <c r="O75" s="45"/>
       <c r="P75" s="45"/>
@@ -6103,12 +6034,11 @@
       <c r="AC75" s="45"/>
       <c r="AD75" s="45"/>
       <c r="AE75" s="45"/>
-      <c r="AF75" s="45"/>
-      <c r="AG75" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF75" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="51"/>
       <c r="B76" s="54"/>
       <c r="C76" s="56"/>
@@ -6139,7 +6069,7 @@
       <c r="L76" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M76" s="48"/>
+      <c r="M76" s="58"/>
       <c r="N76" s="45"/>
       <c r="O76" s="45"/>
       <c r="P76" s="45"/>
@@ -6158,12 +6088,11 @@
       <c r="AC76" s="45"/>
       <c r="AD76" s="45"/>
       <c r="AE76" s="45"/>
-      <c r="AF76" s="45"/>
-      <c r="AG76" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF76" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="51"/>
       <c r="B77" s="54"/>
       <c r="C77" s="56"/>
@@ -6194,7 +6123,7 @@
       <c r="L77" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M77" s="48"/>
+      <c r="M77" s="58"/>
       <c r="N77" s="45"/>
       <c r="O77" s="45"/>
       <c r="P77" s="45"/>
@@ -6213,12 +6142,11 @@
       <c r="AC77" s="45"/>
       <c r="AD77" s="45"/>
       <c r="AE77" s="45"/>
-      <c r="AF77" s="45"/>
-      <c r="AG77" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF77" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="51"/>
       <c r="B78" s="54"/>
       <c r="C78" s="56"/>
@@ -6249,7 +6177,7 @@
       <c r="L78" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M78" s="48"/>
+      <c r="M78" s="58"/>
       <c r="N78" s="45"/>
       <c r="O78" s="45"/>
       <c r="P78" s="45"/>
@@ -6268,12 +6196,11 @@
       <c r="AC78" s="45"/>
       <c r="AD78" s="45"/>
       <c r="AE78" s="45"/>
-      <c r="AF78" s="45"/>
-      <c r="AG78" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF78" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="51"/>
       <c r="B79" s="54"/>
       <c r="C79" s="56"/>
@@ -6304,7 +6231,7 @@
       <c r="L79" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M79" s="48"/>
+      <c r="M79" s="58"/>
       <c r="N79" s="45"/>
       <c r="O79" s="45"/>
       <c r="P79" s="45"/>
@@ -6323,12 +6250,11 @@
       <c r="AC79" s="45"/>
       <c r="AD79" s="45"/>
       <c r="AE79" s="45"/>
-      <c r="AF79" s="45"/>
-      <c r="AG79" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF79" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="51"/>
       <c r="B80" s="54"/>
       <c r="C80" s="56"/>
@@ -6359,7 +6285,7 @@
       <c r="L80" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M80" s="48"/>
+      <c r="M80" s="58"/>
       <c r="N80" s="45"/>
       <c r="O80" s="45"/>
       <c r="P80" s="45"/>
@@ -6378,12 +6304,11 @@
       <c r="AC80" s="45"/>
       <c r="AD80" s="45"/>
       <c r="AE80" s="45"/>
-      <c r="AF80" s="45"/>
-      <c r="AG80" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF80" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="51"/>
       <c r="B81" s="54"/>
       <c r="C81" s="56"/>
@@ -6414,7 +6339,7 @@
       <c r="L81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M81" s="48"/>
+      <c r="M81" s="58"/>
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -6433,12 +6358,11 @@
       <c r="AC81" s="45"/>
       <c r="AD81" s="45"/>
       <c r="AE81" s="45"/>
-      <c r="AF81" s="45"/>
-      <c r="AG81" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF81" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="51"/>
       <c r="B82" s="54"/>
       <c r="C82" s="56"/>
@@ -6469,7 +6393,7 @@
       <c r="L82" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M82" s="48"/>
+      <c r="M82" s="58"/>
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
       <c r="P82" s="45"/>
@@ -6488,12 +6412,11 @@
       <c r="AC82" s="45"/>
       <c r="AD82" s="45"/>
       <c r="AE82" s="45"/>
-      <c r="AF82" s="45"/>
-      <c r="AG82" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF82" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="51"/>
       <c r="B83" s="54"/>
       <c r="C83" s="56"/>
@@ -6524,7 +6447,7 @@
       <c r="L83" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M83" s="48"/>
+      <c r="M83" s="58"/>
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="45"/>
@@ -6543,12 +6466,11 @@
       <c r="AC83" s="45"/>
       <c r="AD83" s="45"/>
       <c r="AE83" s="45"/>
-      <c r="AF83" s="45"/>
-      <c r="AG83" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF83" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="51"/>
       <c r="B84" s="54"/>
       <c r="C84" s="56"/>
@@ -6577,7 +6499,7 @@
       <c r="L84" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M84" s="48"/>
+      <c r="M84" s="58"/>
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
       <c r="P84" s="45"/>
@@ -6596,12 +6518,11 @@
       <c r="AC84" s="45"/>
       <c r="AD84" s="45"/>
       <c r="AE84" s="45"/>
-      <c r="AF84" s="45"/>
-      <c r="AG84" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF84" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="51"/>
       <c r="B85" s="54"/>
       <c r="C85" s="56"/>
@@ -6630,7 +6551,7 @@
       <c r="L85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M85" s="48"/>
+      <c r="M85" s="58"/>
       <c r="N85" s="45"/>
       <c r="O85" s="45"/>
       <c r="P85" s="45"/>
@@ -6649,15 +6570,14 @@
       <c r="AC85" s="45"/>
       <c r="AD85" s="45"/>
       <c r="AE85" s="45"/>
-      <c r="AF85" s="45"/>
-      <c r="AG85" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF85" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="51"/>
       <c r="B86" s="54"/>
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="47" t="s">
         <v>77</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -6687,7 +6607,7 @@
       <c r="L86" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M86" s="48"/>
+      <c r="M86" s="58"/>
       <c r="N86" s="45"/>
       <c r="O86" s="45"/>
       <c r="P86" s="45"/>
@@ -6706,15 +6626,14 @@
       <c r="AC86" s="45"/>
       <c r="AD86" s="45"/>
       <c r="AE86" s="45"/>
-      <c r="AF86" s="45"/>
-      <c r="AG86" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF86" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="51"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="58"/>
+      <c r="C87" s="48"/>
       <c r="D87" s="11" t="s">
         <v>80</v>
       </c>
@@ -6740,7 +6659,7 @@
       <c r="L87" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M87" s="48"/>
+      <c r="M87" s="58"/>
       <c r="N87" s="45"/>
       <c r="O87" s="45"/>
       <c r="P87" s="45"/>
@@ -6759,15 +6678,14 @@
       <c r="AC87" s="45"/>
       <c r="AD87" s="45"/>
       <c r="AE87" s="45"/>
-      <c r="AF87" s="45"/>
-      <c r="AG87" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF87" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="52"/>
       <c r="B88" s="55"/>
-      <c r="C88" s="59"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="13" t="s">
         <v>82</v>
       </c>
@@ -6795,7 +6713,7 @@
       <c r="L88" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M88" s="48"/>
+      <c r="M88" s="58"/>
       <c r="N88" s="45"/>
       <c r="O88" s="45"/>
       <c r="P88" s="45"/>
@@ -6814,12 +6732,11 @@
       <c r="AC88" s="45"/>
       <c r="AD88" s="45"/>
       <c r="AE88" s="45"/>
-      <c r="AF88" s="45"/>
-      <c r="AG88" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF88" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="50">
         <v>5</v>
       </c>
@@ -6856,7 +6773,7 @@
       <c r="L89" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M89" s="48"/>
+      <c r="M89" s="58"/>
       <c r="N89" s="45"/>
       <c r="O89" s="45"/>
       <c r="P89" s="45"/>
@@ -6875,12 +6792,11 @@
       <c r="AC89" s="45"/>
       <c r="AD89" s="45"/>
       <c r="AE89" s="45"/>
-      <c r="AF89" s="45"/>
-      <c r="AG89" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF89" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="51"/>
       <c r="B90" s="54"/>
       <c r="C90" s="56" t="s">
@@ -6913,7 +6829,7 @@
       <c r="L90" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M90" s="48"/>
+      <c r="M90" s="58"/>
       <c r="N90" s="45"/>
       <c r="O90" s="45"/>
       <c r="P90" s="45"/>
@@ -6932,12 +6848,11 @@
       <c r="AC90" s="45"/>
       <c r="AD90" s="45"/>
       <c r="AE90" s="45"/>
-      <c r="AF90" s="45"/>
-      <c r="AG90" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF90" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="51"/>
       <c r="B91" s="54"/>
       <c r="C91" s="56"/>
@@ -6968,7 +6883,7 @@
       <c r="L91" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M91" s="48"/>
+      <c r="M91" s="58"/>
       <c r="N91" s="45"/>
       <c r="O91" s="45"/>
       <c r="P91" s="45"/>
@@ -6987,12 +6902,11 @@
       <c r="AC91" s="45"/>
       <c r="AD91" s="45"/>
       <c r="AE91" s="45"/>
-      <c r="AF91" s="45"/>
-      <c r="AG91" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF91" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="51"/>
       <c r="B92" s="54"/>
       <c r="C92" s="56"/>
@@ -7023,7 +6937,7 @@
       <c r="L92" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M92" s="48"/>
+      <c r="M92" s="58"/>
       <c r="N92" s="45"/>
       <c r="O92" s="45"/>
       <c r="P92" s="45"/>
@@ -7042,12 +6956,11 @@
       <c r="AC92" s="45"/>
       <c r="AD92" s="45"/>
       <c r="AE92" s="45"/>
-      <c r="AF92" s="45"/>
-      <c r="AG92" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF92" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="51"/>
       <c r="B93" s="54"/>
       <c r="C93" s="56"/>
@@ -7078,7 +6991,7 @@
       <c r="L93" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M93" s="48"/>
+      <c r="M93" s="58"/>
       <c r="N93" s="45"/>
       <c r="O93" s="45"/>
       <c r="P93" s="45"/>
@@ -7097,12 +7010,11 @@
       <c r="AC93" s="45"/>
       <c r="AD93" s="45"/>
       <c r="AE93" s="45"/>
-      <c r="AF93" s="45"/>
-      <c r="AG93" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF93" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="51"/>
       <c r="B94" s="54"/>
       <c r="C94" s="56"/>
@@ -7133,7 +7045,7 @@
       <c r="L94" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M94" s="48"/>
+      <c r="M94" s="58"/>
       <c r="N94" s="45"/>
       <c r="O94" s="45"/>
       <c r="P94" s="45"/>
@@ -7152,12 +7064,11 @@
       <c r="AC94" s="45"/>
       <c r="AD94" s="45"/>
       <c r="AE94" s="45"/>
-      <c r="AF94" s="45"/>
-      <c r="AG94" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF94" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="51"/>
       <c r="B95" s="54"/>
       <c r="C95" s="56"/>
@@ -7188,7 +7099,7 @@
       <c r="L95" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M95" s="48"/>
+      <c r="M95" s="58"/>
       <c r="N95" s="45"/>
       <c r="O95" s="45"/>
       <c r="P95" s="45"/>
@@ -7207,12 +7118,11 @@
       <c r="AC95" s="45"/>
       <c r="AD95" s="45"/>
       <c r="AE95" s="45"/>
-      <c r="AF95" s="45"/>
-      <c r="AG95" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF95" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="51"/>
       <c r="B96" s="54"/>
       <c r="C96" s="56"/>
@@ -7243,7 +7153,7 @@
       <c r="L96" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M96" s="48"/>
+      <c r="M96" s="58"/>
       <c r="N96" s="45"/>
       <c r="O96" s="45"/>
       <c r="P96" s="45"/>
@@ -7262,12 +7172,11 @@
       <c r="AC96" s="45"/>
       <c r="AD96" s="45"/>
       <c r="AE96" s="45"/>
-      <c r="AF96" s="45"/>
-      <c r="AG96" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF96" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="51"/>
       <c r="B97" s="54"/>
       <c r="C97" s="56"/>
@@ -7298,7 +7207,7 @@
       <c r="L97" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M97" s="48"/>
+      <c r="M97" s="58"/>
       <c r="N97" s="45"/>
       <c r="O97" s="45"/>
       <c r="P97" s="45"/>
@@ -7317,12 +7226,11 @@
       <c r="AC97" s="45"/>
       <c r="AD97" s="45"/>
       <c r="AE97" s="45"/>
-      <c r="AF97" s="45"/>
-      <c r="AG97" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF97" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="51"/>
       <c r="B98" s="54"/>
       <c r="C98" s="56"/>
@@ -7353,7 +7261,7 @@
       <c r="L98" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M98" s="48"/>
+      <c r="M98" s="58"/>
       <c r="N98" s="45"/>
       <c r="O98" s="45"/>
       <c r="P98" s="45"/>
@@ -7372,12 +7280,11 @@
       <c r="AC98" s="45"/>
       <c r="AD98" s="45"/>
       <c r="AE98" s="45"/>
-      <c r="AF98" s="45"/>
-      <c r="AG98" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF98" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="51"/>
       <c r="B99" s="54"/>
       <c r="C99" s="56"/>
@@ -7408,7 +7315,7 @@
       <c r="L99" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M99" s="48"/>
+      <c r="M99" s="58"/>
       <c r="N99" s="45"/>
       <c r="O99" s="45"/>
       <c r="P99" s="45"/>
@@ -7427,12 +7334,11 @@
       <c r="AC99" s="45"/>
       <c r="AD99" s="45"/>
       <c r="AE99" s="45"/>
-      <c r="AF99" s="45"/>
-      <c r="AG99" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF99" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="51"/>
       <c r="B100" s="54"/>
       <c r="C100" s="56"/>
@@ -7463,7 +7369,7 @@
       <c r="L100" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M100" s="48"/>
+      <c r="M100" s="58"/>
       <c r="N100" s="45"/>
       <c r="O100" s="45"/>
       <c r="P100" s="45"/>
@@ -7482,12 +7388,11 @@
       <c r="AC100" s="45"/>
       <c r="AD100" s="45"/>
       <c r="AE100" s="45"/>
-      <c r="AF100" s="45"/>
-      <c r="AG100" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF100" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="51"/>
       <c r="B101" s="54"/>
       <c r="C101" s="56"/>
@@ -7518,7 +7423,7 @@
       <c r="L101" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M101" s="48"/>
+      <c r="M101" s="58"/>
       <c r="N101" s="45"/>
       <c r="O101" s="45"/>
       <c r="P101" s="45"/>
@@ -7537,12 +7442,11 @@
       <c r="AC101" s="45"/>
       <c r="AD101" s="45"/>
       <c r="AE101" s="45"/>
-      <c r="AF101" s="45"/>
-      <c r="AG101" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF101" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="51"/>
       <c r="B102" s="54"/>
       <c r="C102" s="56"/>
@@ -7573,7 +7477,7 @@
       <c r="L102" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M102" s="48"/>
+      <c r="M102" s="58"/>
       <c r="N102" s="45"/>
       <c r="O102" s="45"/>
       <c r="P102" s="45"/>
@@ -7592,12 +7496,11 @@
       <c r="AC102" s="45"/>
       <c r="AD102" s="45"/>
       <c r="AE102" s="45"/>
-      <c r="AF102" s="45"/>
-      <c r="AG102" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF102" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="51"/>
       <c r="B103" s="54"/>
       <c r="C103" s="56"/>
@@ -7628,7 +7531,7 @@
       <c r="L103" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M103" s="48"/>
+      <c r="M103" s="58"/>
       <c r="N103" s="45"/>
       <c r="O103" s="45"/>
       <c r="P103" s="45"/>
@@ -7647,12 +7550,11 @@
       <c r="AC103" s="45"/>
       <c r="AD103" s="45"/>
       <c r="AE103" s="45"/>
-      <c r="AF103" s="45"/>
-      <c r="AG103" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF103" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="51"/>
       <c r="B104" s="54"/>
       <c r="C104" s="56"/>
@@ -7683,7 +7585,7 @@
       <c r="L104" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M104" s="48"/>
+      <c r="M104" s="58"/>
       <c r="N104" s="45"/>
       <c r="O104" s="45"/>
       <c r="P104" s="45"/>
@@ -7702,12 +7604,11 @@
       <c r="AC104" s="45"/>
       <c r="AD104" s="45"/>
       <c r="AE104" s="45"/>
-      <c r="AF104" s="45"/>
-      <c r="AG104" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF104" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="51"/>
       <c r="B105" s="54"/>
       <c r="C105" s="56"/>
@@ -7736,7 +7637,7 @@
       <c r="L105" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M105" s="48"/>
+      <c r="M105" s="58"/>
       <c r="N105" s="45"/>
       <c r="O105" s="45"/>
       <c r="P105" s="45"/>
@@ -7755,12 +7656,11 @@
       <c r="AC105" s="45"/>
       <c r="AD105" s="45"/>
       <c r="AE105" s="45"/>
-      <c r="AF105" s="45"/>
-      <c r="AG105" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF105" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="51"/>
       <c r="B106" s="54"/>
       <c r="C106" s="56"/>
@@ -7789,7 +7689,7 @@
       <c r="L106" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M106" s="48"/>
+      <c r="M106" s="58"/>
       <c r="N106" s="45"/>
       <c r="O106" s="45"/>
       <c r="P106" s="45"/>
@@ -7808,15 +7708,14 @@
       <c r="AC106" s="45"/>
       <c r="AD106" s="45"/>
       <c r="AE106" s="45"/>
-      <c r="AF106" s="45"/>
-      <c r="AG106" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF106" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="51"/>
       <c r="B107" s="54"/>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="47" t="s">
         <v>120</v>
       </c>
       <c r="D107" s="11" t="s">
@@ -7846,7 +7745,7 @@
       <c r="L107" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M107" s="48"/>
+      <c r="M107" s="58"/>
       <c r="N107" s="45"/>
       <c r="O107" s="45"/>
       <c r="P107" s="45"/>
@@ -7865,15 +7764,14 @@
       <c r="AC107" s="45"/>
       <c r="AD107" s="45"/>
       <c r="AE107" s="45"/>
-      <c r="AF107" s="45"/>
-      <c r="AG107" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF107" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="51"/>
       <c r="B108" s="54"/>
-      <c r="C108" s="58"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="11" t="s">
         <v>80</v>
       </c>
@@ -7897,7 +7795,7 @@
       <c r="L108" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M108" s="48"/>
+      <c r="M108" s="58"/>
       <c r="N108" s="45"/>
       <c r="O108" s="45"/>
       <c r="P108" s="45"/>
@@ -7916,15 +7814,14 @@
       <c r="AC108" s="45"/>
       <c r="AD108" s="45"/>
       <c r="AE108" s="45"/>
-      <c r="AF108" s="45"/>
-      <c r="AG108" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF108" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="52"/>
       <c r="B109" s="55"/>
-      <c r="C109" s="59"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="13" t="s">
         <v>82</v>
       </c>
@@ -7950,7 +7847,7 @@
       <c r="L109" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M109" s="48"/>
+      <c r="M109" s="58"/>
       <c r="N109" s="45"/>
       <c r="O109" s="45"/>
       <c r="P109" s="45"/>
@@ -7969,12 +7866,11 @@
       <c r="AC109" s="45"/>
       <c r="AD109" s="45"/>
       <c r="AE109" s="45"/>
-      <c r="AF109" s="45"/>
-      <c r="AG109" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF109" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="50">
         <v>6</v>
       </c>
@@ -8011,7 +7907,7 @@
       <c r="L110" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M110" s="48"/>
+      <c r="M110" s="58"/>
       <c r="N110" s="45"/>
       <c r="O110" s="45"/>
       <c r="P110" s="45"/>
@@ -8030,12 +7926,11 @@
       <c r="AC110" s="45"/>
       <c r="AD110" s="45"/>
       <c r="AE110" s="45"/>
-      <c r="AF110" s="45"/>
-      <c r="AG110" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF110" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="51"/>
       <c r="B111" s="54"/>
       <c r="C111" s="56" t="s">
@@ -8068,7 +7963,7 @@
       <c r="L111" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="M111" s="48"/>
+      <c r="M111" s="58"/>
       <c r="N111" s="45"/>
       <c r="O111" s="45"/>
       <c r="P111" s="45"/>
@@ -8087,12 +7982,11 @@
       <c r="AC111" s="45"/>
       <c r="AD111" s="45"/>
       <c r="AE111" s="45"/>
-      <c r="AF111" s="45"/>
-      <c r="AG111" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF111" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="51"/>
       <c r="B112" s="54"/>
       <c r="C112" s="56"/>
@@ -8123,7 +8017,7 @@
       <c r="L112" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="M112" s="48"/>
+      <c r="M112" s="58"/>
       <c r="N112" s="45"/>
       <c r="O112" s="45"/>
       <c r="P112" s="45"/>
@@ -8142,12 +8036,11 @@
       <c r="AC112" s="45"/>
       <c r="AD112" s="45"/>
       <c r="AE112" s="45"/>
-      <c r="AF112" s="45"/>
-      <c r="AG112" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF112" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="51"/>
       <c r="B113" s="54"/>
       <c r="C113" s="56"/>
@@ -8178,7 +8071,7 @@
       <c r="L113" s="15">
         <v>18122019</v>
       </c>
-      <c r="M113" s="48"/>
+      <c r="M113" s="58"/>
       <c r="N113" s="45"/>
       <c r="O113" s="45"/>
       <c r="P113" s="45"/>
@@ -8197,12 +8090,11 @@
       <c r="AC113" s="45"/>
       <c r="AD113" s="45"/>
       <c r="AE113" s="45"/>
-      <c r="AF113" s="45"/>
-      <c r="AG113" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF113" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="51"/>
       <c r="B114" s="54"/>
       <c r="C114" s="56"/>
@@ -8233,7 +8125,7 @@
       <c r="L114" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="M114" s="48"/>
+      <c r="M114" s="58"/>
       <c r="N114" s="45"/>
       <c r="O114" s="45"/>
       <c r="P114" s="45"/>
@@ -8252,12 +8144,11 @@
       <c r="AC114" s="45"/>
       <c r="AD114" s="45"/>
       <c r="AE114" s="45"/>
-      <c r="AF114" s="45"/>
-      <c r="AG114" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF114" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="51"/>
       <c r="B115" s="54"/>
       <c r="C115" s="56"/>
@@ -8288,7 +8179,7 @@
       <c r="L115" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="M115" s="48"/>
+      <c r="M115" s="58"/>
       <c r="N115" s="45"/>
       <c r="O115" s="45"/>
       <c r="P115" s="45"/>
@@ -8307,12 +8198,11 @@
       <c r="AC115" s="45"/>
       <c r="AD115" s="45"/>
       <c r="AE115" s="45"/>
-      <c r="AF115" s="45"/>
-      <c r="AG115" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF115" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="51"/>
       <c r="B116" s="54"/>
       <c r="C116" s="56"/>
@@ -8343,7 +8233,7 @@
       <c r="L116" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="M116" s="48"/>
+      <c r="M116" s="58"/>
       <c r="N116" s="45"/>
       <c r="O116" s="45"/>
       <c r="P116" s="45"/>
@@ -8362,12 +8252,11 @@
       <c r="AC116" s="45"/>
       <c r="AD116" s="45"/>
       <c r="AE116" s="45"/>
-      <c r="AF116" s="45"/>
-      <c r="AG116" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF116" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="51"/>
       <c r="B117" s="54"/>
       <c r="C117" s="56"/>
@@ -8398,7 +8287,7 @@
       <c r="L117" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="M117" s="48"/>
+      <c r="M117" s="58"/>
       <c r="N117" s="45"/>
       <c r="O117" s="45"/>
       <c r="P117" s="45"/>
@@ -8417,12 +8306,11 @@
       <c r="AC117" s="45"/>
       <c r="AD117" s="45"/>
       <c r="AE117" s="45"/>
-      <c r="AF117" s="45"/>
-      <c r="AG117" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF117" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="51"/>
       <c r="B118" s="54"/>
       <c r="C118" s="56"/>
@@ -8453,7 +8341,7 @@
       <c r="L118" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="M118" s="48"/>
+      <c r="M118" s="58"/>
       <c r="N118" s="45"/>
       <c r="O118" s="45"/>
       <c r="P118" s="45"/>
@@ -8472,12 +8360,11 @@
       <c r="AC118" s="45"/>
       <c r="AD118" s="45"/>
       <c r="AE118" s="45"/>
-      <c r="AF118" s="45"/>
-      <c r="AG118" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF118" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="51"/>
       <c r="B119" s="54"/>
       <c r="C119" s="56"/>
@@ -8508,7 +8395,7 @@
       <c r="L119" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M119" s="48"/>
+      <c r="M119" s="58"/>
       <c r="N119" s="45"/>
       <c r="O119" s="45"/>
       <c r="P119" s="45"/>
@@ -8527,12 +8414,11 @@
       <c r="AC119" s="45"/>
       <c r="AD119" s="45"/>
       <c r="AE119" s="45"/>
-      <c r="AF119" s="45"/>
-      <c r="AG119" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF119" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="51"/>
       <c r="B120" s="54"/>
       <c r="C120" s="56"/>
@@ -8563,7 +8449,7 @@
       <c r="L120" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="M120" s="48"/>
+      <c r="M120" s="58"/>
       <c r="N120" s="45"/>
       <c r="O120" s="45"/>
       <c r="P120" s="45"/>
@@ -8582,12 +8468,11 @@
       <c r="AC120" s="45"/>
       <c r="AD120" s="45"/>
       <c r="AE120" s="45"/>
-      <c r="AF120" s="45"/>
-      <c r="AG120" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF120" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="51"/>
       <c r="B121" s="54"/>
       <c r="C121" s="56"/>
@@ -8618,7 +8503,7 @@
       <c r="L121" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M121" s="48"/>
+      <c r="M121" s="58"/>
       <c r="N121" s="45"/>
       <c r="O121" s="45"/>
       <c r="P121" s="45"/>
@@ -8637,12 +8522,11 @@
       <c r="AC121" s="45"/>
       <c r="AD121" s="45"/>
       <c r="AE121" s="45"/>
-      <c r="AF121" s="45"/>
-      <c r="AG121" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF121" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="51"/>
       <c r="B122" s="54"/>
       <c r="C122" s="56"/>
@@ -8673,7 +8557,7 @@
       <c r="L122" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M122" s="48"/>
+      <c r="M122" s="58"/>
       <c r="N122" s="45"/>
       <c r="O122" s="45"/>
       <c r="P122" s="45"/>
@@ -8692,12 +8576,11 @@
       <c r="AC122" s="45"/>
       <c r="AD122" s="45"/>
       <c r="AE122" s="45"/>
-      <c r="AF122" s="45"/>
-      <c r="AG122" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="123" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF122" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="51"/>
       <c r="B123" s="54"/>
       <c r="C123" s="56"/>
@@ -8728,7 +8611,7 @@
       <c r="L123" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="M123" s="48"/>
+      <c r="M123" s="58"/>
       <c r="N123" s="45"/>
       <c r="O123" s="45"/>
       <c r="P123" s="45"/>
@@ -8747,12 +8630,11 @@
       <c r="AC123" s="45"/>
       <c r="AD123" s="45"/>
       <c r="AE123" s="45"/>
-      <c r="AF123" s="45"/>
-      <c r="AG123" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="124" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF123" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="51"/>
       <c r="B124" s="54"/>
       <c r="C124" s="56"/>
@@ -8783,7 +8665,7 @@
       <c r="L124" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M124" s="48"/>
+      <c r="M124" s="58"/>
       <c r="N124" s="45"/>
       <c r="O124" s="45"/>
       <c r="P124" s="45"/>
@@ -8802,12 +8684,11 @@
       <c r="AC124" s="45"/>
       <c r="AD124" s="45"/>
       <c r="AE124" s="45"/>
-      <c r="AF124" s="45"/>
-      <c r="AG124" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="125" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF124" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="51"/>
       <c r="B125" s="54"/>
       <c r="C125" s="56"/>
@@ -8838,7 +8719,7 @@
       <c r="L125" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="M125" s="48"/>
+      <c r="M125" s="58"/>
       <c r="N125" s="45"/>
       <c r="O125" s="45"/>
       <c r="P125" s="45"/>
@@ -8857,12 +8738,11 @@
       <c r="AC125" s="45"/>
       <c r="AD125" s="45"/>
       <c r="AE125" s="45"/>
-      <c r="AF125" s="45"/>
-      <c r="AG125" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF125" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="51"/>
       <c r="B126" s="54"/>
       <c r="C126" s="56"/>
@@ -8891,7 +8771,7 @@
       <c r="L126" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="M126" s="48"/>
+      <c r="M126" s="58"/>
       <c r="N126" s="45"/>
       <c r="O126" s="45"/>
       <c r="P126" s="45"/>
@@ -8910,12 +8790,11 @@
       <c r="AC126" s="45"/>
       <c r="AD126" s="45"/>
       <c r="AE126" s="45"/>
-      <c r="AF126" s="45"/>
-      <c r="AG126" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF126" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="51"/>
       <c r="B127" s="54"/>
       <c r="C127" s="56"/>
@@ -8944,7 +8823,7 @@
       <c r="L127" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="M127" s="48"/>
+      <c r="M127" s="58"/>
       <c r="N127" s="45"/>
       <c r="O127" s="45"/>
       <c r="P127" s="45"/>
@@ -8963,15 +8842,14 @@
       <c r="AC127" s="45"/>
       <c r="AD127" s="45"/>
       <c r="AE127" s="45"/>
-      <c r="AF127" s="45"/>
-      <c r="AG127" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF127" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="51"/>
       <c r="B128" s="54"/>
-      <c r="C128" s="57" t="s">
+      <c r="C128" s="47" t="s">
         <v>120</v>
       </c>
       <c r="D128" s="11" t="s">
@@ -9001,7 +8879,7 @@
       <c r="L128" s="23">
         <v>43817</v>
       </c>
-      <c r="M128" s="48"/>
+      <c r="M128" s="58"/>
       <c r="N128" s="45"/>
       <c r="O128" s="45"/>
       <c r="P128" s="45"/>
@@ -9020,15 +8898,14 @@
       <c r="AC128" s="45"/>
       <c r="AD128" s="45"/>
       <c r="AE128" s="45"/>
-      <c r="AF128" s="45"/>
-      <c r="AG128" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF128" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="51"/>
       <c r="B129" s="54"/>
-      <c r="C129" s="58"/>
+      <c r="C129" s="48"/>
       <c r="D129" s="11" t="s">
         <v>80</v>
       </c>
@@ -9052,7 +8929,7 @@
         <v>20</v>
       </c>
       <c r="L129" s="15"/>
-      <c r="M129" s="48"/>
+      <c r="M129" s="58"/>
       <c r="N129" s="45"/>
       <c r="O129" s="45"/>
       <c r="P129" s="45"/>
@@ -9071,15 +8948,14 @@
       <c r="AC129" s="45"/>
       <c r="AD129" s="45"/>
       <c r="AE129" s="45"/>
-      <c r="AF129" s="45"/>
-      <c r="AG129" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF129" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" s="52"/>
       <c r="B130" s="55"/>
-      <c r="C130" s="59"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="13" t="s">
         <v>82</v>
       </c>
@@ -9105,7 +8981,7 @@
       <c r="L130" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="M130" s="49"/>
+      <c r="M130" s="59"/>
       <c r="N130" s="45"/>
       <c r="O130" s="45"/>
       <c r="P130" s="45"/>
@@ -9124,22 +9000,12 @@
       <c r="AC130" s="45"/>
       <c r="AD130" s="45"/>
       <c r="AE130" s="45"/>
-      <c r="AF130" s="45"/>
-      <c r="AG130" s="44" t="s">
+      <c r="AF130" s="44" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C3:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="B26:B46"/>
-    <mergeCell ref="C27:C43"/>
-    <mergeCell ref="C44:C46"/>
     <mergeCell ref="M1:M130"/>
     <mergeCell ref="A89:A109"/>
     <mergeCell ref="B89:B109"/>
@@ -9156,9 +9022,18 @@
     <mergeCell ref="A68:A88"/>
     <mergeCell ref="B68:B88"/>
     <mergeCell ref="C69:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="B26:B46"/>
+    <mergeCell ref="C27:C43"/>
+    <mergeCell ref="C44:C46"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E130" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
   </dataValidations>
